--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB101"/>
+  <dimension ref="A1:BD101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="54" max="54" width="20.7109375" style="2" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -577,60 +577,70 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>software_q18</t>
+          <t>software_1_q18</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
+          <t>software_2_q18</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>software_3_q18</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>userwritten_q19</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>userwrittenquote_q19</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>codeprovided_q20</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>codelink_q20</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>seedprovided_q21</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>compenvironment_q22</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>compos_q23</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>reproducibilitynote</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>coding_confidence</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>dateofreview</t>
         </is>
@@ -815,25 +825,55 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>https://github.com/secastroal/LST_Analyses</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
           <t>package and R/MPLus version, but not OS</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB2" s="2">
+      <c r="BD2" s="2">
         <v>45082</v>
       </c>
     </row>
@@ -1004,22 +1044,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY3" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
           <t>only package name</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB3" s="2">
+      <c r="BD3" s="2">
         <v>45082</v>
       </c>
     </row>
@@ -1200,22 +1260,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="AZ4" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
           <t>extremely badly described and quite complicated paper -- I'm very unsure about the coding (the simulation starts at p. 89?)</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB4" s="2">
+      <c r="BD4" s="2">
         <v>45082</v>
       </c>
     </row>
@@ -1391,27 +1471,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
           <t>code only for example, not the sim study</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>The sim study compares different fix indecies (based on a single ML model). So, although they are usually thought of as estimands, they serve as methods in this settings.</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB5" s="2">
+      <c r="BD5" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -1587,17 +1687,37 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB6" s="2">
+      <c r="BD6" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -1778,20 +1898,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="BA7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>https://github.com/connorjmccabe/modglm/blob/master/mscode/imp2_simulation_logit_FINAL_github.R</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB7" s="2">
+      <c r="BD7" s="2">
         <v>45105</v>
       </c>
     </row>
@@ -1966,17 +2108,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="BA8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB8" s="2">
+      <c r="BD8" s="2">
         <v>45105</v>
       </c>
     </row>
@@ -2154,17 +2316,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB9" s="2">
+      <c r="BD9" s="2">
         <v>45105</v>
       </c>
     </row>
@@ -2340,17 +2522,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>"The simulation codecan be requested from the last author of this paper."</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB10" s="2">
+      <c r="BD10" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -2531,17 +2738,42 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>https://osf.io/xhfqw</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB11" s="2">
+      <c r="BD11" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -2719,22 +2951,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>yes</t>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>"is available upon request from the corresponding author"</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
           <t>including processor and RAM (because of the computational time comparison)</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
+      <c r="BC12" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB12" s="2">
+      <c r="BD12" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -2915,17 +3172,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>only data</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB13" s="2">
+      <c r="BD13" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3108,17 +3390,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB14" s="2">
+      <c r="BD14" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3299,20 +3601,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AU15">
-        <v>2020</v>
-      </c>
-      <c r="BA15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>"The code for data generation and calibration was written in R programming language (R Core Team, Citation2020) and can be requested from the author"</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB15" s="2">
+      <c r="BD15" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3488,17 +3812,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB16" s="2">
+      <c r="BD16" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3684,17 +4028,42 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>http://www.sta.cuhk.edu.hk/xysong/JHMM/</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB17" s="2">
+      <c r="BD17" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3877,20 +4246,45 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA18" t="inlineStr">
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB18" s="2">
+      <c r="BD18" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4066,20 +4460,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU19">
-        <v>9902276</v>
-      </c>
-      <c r="BA19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>https://figshare.com/articles/software/Multiple_imputation_in_data_that_grow_over_time/9902276</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB19" s="2">
+      <c r="BD19" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4260,20 +4676,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AU20">
-        <v>696</v>
-      </c>
-      <c r="BA20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>https://github.com/Aaron0696/FIML_MI_JOC_MISSINGDATA</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB20" s="2">
+      <c r="BD20" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4459,17 +4897,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>references previous simulation</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB21" s="2">
+      <c r="BD21" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4650,25 +5113,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU22">
-        <v>2</v>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>http://faculty.missouri.edu/huangf/CR2/</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
           <t>links to code on authors website but cannot be reached -- use open mantained repositories</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr">
+      <c r="BC22" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB22" s="2">
+      <c r="BD22" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4849,17 +5334,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>(https://github.com/CynthiaXinTong/MedianGMM) only example, not full simulation script</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB23" s="2">
+      <c r="BD23" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -5040,22 +5550,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>yes</t>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>"R codes can be made available upon request to the corresponding author"</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
           <t>A simulation study was conducted to evaluate the performance of the proposed GA for forced-choice item pairing.</t>
         </is>
       </c>
-      <c r="BA24" t="inlineStr">
+      <c r="BC24" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB24" s="2">
+      <c r="BD24" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -5241,25 +5776,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
         <is>
           <t>they develop the package used for the methods</t>
         </is>
       </c>
-      <c r="AU25">
-        <v>3</v>
-      </c>
-      <c r="BA25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>https://osf.io/xdg3p/</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB25" s="2">
+      <c r="BD25" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -5445,17 +6002,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB26" s="2">
+      <c r="BD26" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -5638,20 +6215,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU27">
-        <v>385</v>
-      </c>
-      <c r="BA27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000385/met0000385Rcode_submission.R</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB27" s="2">
+      <c r="BD27" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -5834,23 +6433,50 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AU28">
-        <v>95</v>
-      </c>
-      <c r="BA28" t="inlineStr">
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>https://osf.io/h95vx/</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB28" s="2">
+      <c r="BD28" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -6031,20 +6657,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AU29">
-        <v>5</v>
-      </c>
-      <c r="BA29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>https://osf.io/bwk5t/</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB29" s="2">
+      <c r="BD29" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -6220,17 +6868,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB30" s="2">
+      <c r="BD30" s="2">
         <v>45107</v>
       </c>
     </row>
@@ -6413,17 +7081,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB31" s="2">
+      <c r="BD31" s="2">
         <v>45107</v>
       </c>
     </row>
@@ -6604,20 +7292,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AU32">
-        <v>5</v>
-      </c>
-      <c r="BA32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>https://osf.io/5f732/?view_only=</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB32" s="2">
+      <c r="BD32" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -6795,25 +7505,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AU33">
-        <v>5</v>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>https://osf.io/cd5sr/</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
       </c>
       <c r="AZ33" t="inlineStr">
         <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
           <t>great example of citing packages with version numbers directly in text</t>
         </is>
       </c>
-      <c r="BA33" t="inlineStr">
+      <c r="BC33" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB33" s="2">
+      <c r="BD33" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -6994,17 +7726,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BA34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB34" s="2">
+      <c r="BD34" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -7182,17 +7934,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB35" s="2">
+      <c r="BD35" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -7367,27 +8139,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
         <is>
           <t>"the modified parallel analysis and factor score reliabilities were calculated using author-written functions in R. Code for these functions is available upon request."</t>
         </is>
       </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="AZ36" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
           <t>super weird, one paragraph of the whole paper contains information about the simulation, suppplemental material does not exist. unsure about my rating. User-written software is mentioned, unclear if used in the simulation</t>
         </is>
       </c>
-      <c r="BA36" t="inlineStr">
+      <c r="BC36" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB36" s="2">
+      <c r="BD36" s="2">
         <v>45083</v>
       </c>
     </row>
@@ -7577,30 +8369,55 @@
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>R, Stan</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Stan</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
           <t>only software name, no version</t>
         </is>
       </c>
-      <c r="AZ37" t="inlineStr">
+      <c r="BB37" t="inlineStr">
         <is>
           <t>uncertainty only provided for one of the many measures. Unsure if the estimand here are the individual parts of the factor model or the respective fit indices</t>
         </is>
       </c>
-      <c r="BA37" t="inlineStr">
+      <c r="BC37" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB37" s="2">
+      <c r="BD37" s="2">
         <v>45083</v>
       </c>
     </row>
@@ -7796,22 +8613,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AZ38" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
           <t>unclear to me if the first simulation study of the paper is supposed to be a simulation study or just an example of simulation-based power analysis; kept very brief</t>
         </is>
       </c>
-      <c r="BA38" t="inlineStr">
+      <c r="BC38" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB38" s="2">
+      <c r="BD38" s="2">
         <v>45083</v>
       </c>
     </row>
@@ -8002,22 +8839,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
       <c r="AZ39" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
           <t>figures look like screenshots from an excel spreadsheet</t>
         </is>
       </c>
-      <c r="BA39" t="inlineStr">
+      <c r="BC39" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB39" s="2">
+      <c r="BD39" s="2">
         <v>45084</v>
       </c>
     </row>
@@ -8213,27 +9070,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
         <is>
           <t>"All the estimation routines described in this paper and employed for the simulations and empirical example were coded in R by the first author."</t>
         </is>
       </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="AZ40" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
           <t>they call it two simulations, but later state that these are the two "main simulation conditions". I've coded it as one sim.</t>
         </is>
       </c>
-      <c r="BA40" t="inlineStr">
+      <c r="BC40" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB40" s="2">
+      <c r="BD40" s="2">
         <v>45084</v>
       </c>
     </row>
@@ -8419,27 +9296,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
         <is>
           <t>they merely implemented it in mgcv</t>
         </is>
       </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY41" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
           <t>they provide extensive code for model fitting, which also includes a seed somewhere. But they do not provide the code for their simulation</t>
         </is>
       </c>
-      <c r="BA41" t="inlineStr">
+      <c r="BC41" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB41" s="2">
+      <c r="BD41" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -8622,33 +9519,60 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>R, Stata</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS42" t="inlineStr">
+          <t>Stata</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
         <is>
           <t>"The R code and data used in this paper are available in GitHub at https:// github.com/jtm508/bayestraj. Vignettes are also provided to help users adapt the code to applications of their own interest."</t>
         </is>
       </c>
-      <c r="AU42">
-        <v>508</v>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>https://github.com/jtm508/bayestraj</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
       </c>
       <c r="AZ42" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
           <t>not sure if this should be included. More of a demonstration than a full simulation</t>
         </is>
       </c>
-      <c r="BA42" t="inlineStr">
+      <c r="BC42" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB42" s="2">
+      <c r="BD42" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -8841,22 +9765,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
         <is>
           <t>"The download link and a brief description of an R package for our latent mixture-based method is available in the online supplemental materials."</t>
         </is>
       </c>
-      <c r="BA43" t="inlineStr">
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB43" s="2">
+      <c r="BD43" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -9054,32 +9998,57 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
         <is>
           <t>wrote their own MCMC sampler</t>
         </is>
       </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>https://github.com/MbCN-lab/LassoFANDDM</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="AY44" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
           <t>seed is not in the simulation script, but in the "main" script. Still counted it as yes</t>
         </is>
       </c>
-      <c r="AZ44" t="inlineStr">
+      <c r="BB44" t="inlineStr">
         <is>
           <t>not sure if this should be included. More of a demonstration than a full simulation</t>
         </is>
       </c>
-      <c r="BA44" t="inlineStr">
+      <c r="BC44" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB44" s="2">
+      <c r="BD44" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -9267,33 +10236,60 @@
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>R, JAGS</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS45" t="inlineStr">
+          <t>JAGS</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
         <is>
           <t>JAGS model</t>
         </is>
       </c>
-      <c r="AU45">
-        <v>5</v>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>https://osf.io/5vnxc/</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="AY45" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
           <t>seed provided in a different part of the scripts, but still coded as "yes"</t>
         </is>
       </c>
-      <c r="BA45" t="inlineStr">
+      <c r="BC45" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB45" s="2">
+      <c r="BD45" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -9484,22 +10480,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AZ46" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
           <t>the simulation coded here merely dealt as illustration that a certain model specification can recover unbiased estimates on average</t>
         </is>
       </c>
-      <c r="BA46" t="inlineStr">
+      <c r="BC46" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB46" s="2">
+      <c r="BD46" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -9690,27 +10711,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
         <is>
           <t>We have also developed an R package that implements the proposed method (https://cran.r-project.org/web/packages/mediationsens/index.html).</t>
         </is>
       </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="AZ47" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
+        <is>
           <t>this was the most unneccessarily complex description of a simulation study so far. Different subscenarios within different scenarios</t>
         </is>
       </c>
-      <c r="BA47" t="inlineStr">
+      <c r="BC47" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB47" s="2">
+      <c r="BD47" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -9901,27 +10942,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
         <is>
           <t>development of a web app which makes it easier for applied researchers to implement the proposed summary-statistics-based power analysis (https://koumurayama.shinyapps.io/summary_statistics _based_power/)</t>
         </is>
       </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY48" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
           <t>computational environment not really specified, but could use their shiny app to reproduce the results</t>
         </is>
       </c>
-      <c r="BA48" t="inlineStr">
+      <c r="BC48" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB48" s="2">
+      <c r="BD48" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -10112,30 +11173,52 @@
           <t>Ox</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
         <is>
           <t>Ox Code</t>
         </is>
       </c>
-      <c r="AU49">
-        <v>412</v>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000412/met0000412_simulation_general_coefficient_for_revision_1.ox</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
       </c>
       <c r="AY49" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
           <t>hard to read the Ox code, but I see no seed there. Not sure if "minimal" is correct for this</t>
         </is>
       </c>
-      <c r="BA49" t="inlineStr">
+      <c r="BC49" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB49" s="2">
+      <c r="BD49" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -10318,35 +11401,60 @@
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR50" t="inlineStr">
         <is>
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>In order to estimate the 2moME model with single-level data, we “trick” the software by including a cluster variable that has only one individual in each cluster.</t>
         </is>
       </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY50" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA50" t="inlineStr">
+        <is>
           <t>contains Mplus version, but not R version</t>
         </is>
       </c>
-      <c r="AZ50" t="inlineStr">
+      <c r="BB50" t="inlineStr">
         <is>
           <t>rather clear in stating goals &amp; performance measures of sim study. Not sure if this small Mplus trick is enough to count as "userwritten"</t>
         </is>
       </c>
-      <c r="BA50" t="inlineStr">
+      <c r="BC50" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB50" s="2">
+      <c r="BD50" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -10542,22 +11650,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>https://osf.io/qvryj/</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA51" t="inlineStr">
+        <is>
           <t>not sure if seed found in the code was also used for the simulation, but the same seed was used multiple times, so that's probably used. R version given, other package versions not given</t>
         </is>
       </c>
-      <c r="AZ51" t="inlineStr">
+      <c r="BB51" t="inlineStr">
         <is>
           <t>not sure if this should count as simulation study for our purposes. They demonstrate an issue rather than investigate performance</t>
         </is>
       </c>
-      <c r="BA51" t="inlineStr">
+      <c r="BC51" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10750,25 +11883,47 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr">
         <is>
           <t>used standard SAS module</t>
         </is>
       </c>
-      <c r="AU52">
-        <v>1805</v>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>https://scholarworks.iupui.edu/handle/1805/24059</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA52" t="inlineStr">
+        <is>
           <t>code is on university homepage, not sure how long this will be accessible</t>
         </is>
       </c>
-      <c r="BA52" t="inlineStr">
+      <c r="BC52" t="inlineStr">
         <is>
           <t>great</t>
         </is>
@@ -10956,27 +12111,52 @@
           <t>JAGS</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr">
         <is>
           <t>they use their own JAGS code - is this user written?</t>
         </is>
       </c>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>printed in the paper</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="AZ53" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB53" t="inlineStr">
+        <is>
           <t>unsure if this should be called a simulation study, they call it "parameter recovery study"</t>
         </is>
       </c>
-      <c r="BA53" t="inlineStr">
+      <c r="BC53" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB53" s="2">
+      <c r="BD53" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -11161,35 +12341,57 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU54" t="inlineStr">
         <is>
           <t>In this section, we provide a comprehensive overview of how to use mixtur, providing code examples for each step. mixtur is written in R (Version 4.0.2, R Core Team, 2020)4, a free statistical programming language. To download R, visit https://www.r-project.org/.</t>
         </is>
       </c>
-      <c r="AU54">
-        <v>2</v>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>https://osf.io/je2y6</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="AY54" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA54" t="inlineStr">
+        <is>
           <t>packages with versions</t>
         </is>
       </c>
-      <c r="AZ54" t="inlineStr">
+      <c r="BB54" t="inlineStr">
         <is>
           <t>split into 5 brief simulations. This seems like a positive example for reproducibility</t>
         </is>
       </c>
-      <c r="BA54" t="inlineStr">
+      <c r="BC54" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB54" s="2">
+      <c r="BD54" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -11372,30 +12574,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU55">
-        <v>3</v>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>https://osf.io/3nj64</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="AY55" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA55" t="inlineStr">
+        <is>
           <t>seed is set to iteration in for loop</t>
         </is>
       </c>
-      <c r="AZ55" t="inlineStr">
+      <c r="BB55" t="inlineStr">
         <is>
           <t>simulation results on OSF, nice extensive supplement</t>
         </is>
       </c>
-      <c r="BA55" t="inlineStr">
+      <c r="BC55" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB55" s="2">
+      <c r="BD55" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -11578,27 +12802,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="BA56" t="inlineStr">
+        <is>
           <t>code for analyses available, but not for simulation</t>
         </is>
       </c>
-      <c r="AZ56" t="inlineStr">
+      <c r="BB56" t="inlineStr">
         <is>
           <t>extensive supplement</t>
         </is>
       </c>
-      <c r="BA56" t="inlineStr">
+      <c r="BC56" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB56" s="2">
+      <c r="BD56" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -11786,38 +13025,65 @@
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>C++, Python</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS57" t="inlineStr">
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU57" t="inlineStr">
         <is>
           <t>"our method, implemented in C++ as a DOS application"</t>
         </is>
       </c>
-      <c r="AU57">
-        <v>4897128</v>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/4897128</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
       </c>
       <c r="AY57" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA57" t="inlineStr">
+        <is>
           <t>not sure how to check the code here, really large repo. May not contain the code for the simulations, not sure. They use their own software, which is why I put "partially"</t>
         </is>
       </c>
-      <c r="AZ57" t="inlineStr">
+      <c r="BB57" t="inlineStr">
         <is>
           <t>unsure if we should include this, they simulate data to show that their algorithm has good synchronization errors</t>
         </is>
       </c>
-      <c r="BA57" t="inlineStr">
+      <c r="BC57" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB57" s="2">
+      <c r="BD57" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -12000,17 +13266,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC58" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB58" s="2">
+      <c r="BD58" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -12201,27 +13487,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU59" t="inlineStr">
         <is>
           <t>"A code programmed in software R (R Core Team, 2019) can be available from the authors upon request."</t>
         </is>
       </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="AZ59" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB59" t="inlineStr">
+        <is>
           <t>apparently, these are somehow two simulation studies, with the prior of the latter being based on the first one. Is not very clear to me, and reporting is a bit unstructured</t>
         </is>
       </c>
-      <c r="BA59" t="inlineStr">
+      <c r="BC59" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB59" s="2">
+      <c r="BD59" s="2">
         <v>45091</v>
       </c>
     </row>
@@ -12414,35 +13720,65 @@
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>SAS, Mplus</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AR60" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS60" t="inlineStr">
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU60" t="inlineStr">
         <is>
           <t>they use their own Mplus Syntax</t>
         </is>
       </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>printed in the paper</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY60" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA60" t="inlineStr">
+        <is>
           <t>unsure how much would be needed to report for SAS, they provide SAS version - maybe this covers all relevant versions? Same for Mplus. They provide code for model fitting, but not for simulation, which is why I put "not accessible"</t>
         </is>
       </c>
-      <c r="AZ60" t="inlineStr">
+      <c r="BB60" t="inlineStr">
         <is>
           <t>nice ANOVA logic in the results</t>
         </is>
       </c>
-      <c r="BA60" t="inlineStr">
+      <c r="BC60" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB60" s="2">
+      <c r="BD60" s="2">
         <v>45091</v>
       </c>
     </row>
@@ -12638,27 +13974,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ61" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA61" t="inlineStr">
+        <is>
           <t>code for examples provided, but not for simulation</t>
         </is>
       </c>
-      <c r="AZ61" t="inlineStr">
+      <c r="BB61" t="inlineStr">
         <is>
           <t>50 pages of figures/tables in the supplement</t>
         </is>
       </c>
-      <c r="BA61" t="inlineStr">
+      <c r="BC61" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB61" s="2">
+      <c r="BD61" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -12854,27 +14210,47 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA62" t="inlineStr">
+        <is>
           <t>not sure what to put for "MATLAB 2017b". I guess it's enough to reproduce everything?</t>
         </is>
       </c>
-      <c r="AZ62" t="inlineStr">
+      <c r="BB62" t="inlineStr">
         <is>
           <t>not sure where to count different chi square cutoffs, they don't count it as a condition. Includes ANOVA, so this kind of includes uncertainty (maybe)?. Includes SD of SE Bias, I interpret this as MC uncertainty measure in the same way as boxplots would be</t>
         </is>
       </c>
-      <c r="BA62" t="inlineStr">
+      <c r="BC62" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB62" s="2">
+      <c r="BD62" s="2">
         <v>45092</v>
       </c>
     </row>
@@ -13065,27 +14441,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr">
         <is>
           <t>"We attempt to bridge this gap for Bayesian reliability analysis by introducing an R-package that contains the proposed methodology."</t>
         </is>
       </c>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY63" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA63" t="inlineStr">
+        <is>
           <t>only code for empirical example with seed, no code for sim</t>
         </is>
       </c>
-      <c r="BA63" t="inlineStr">
+      <c r="BC63" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB63" s="2">
+      <c r="BD63" s="2">
         <v>45092</v>
       </c>
     </row>
@@ -13286,27 +14682,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA64" t="inlineStr">
+        <is>
           <t>link to R code provided, but link is dead. The user has no public GitHub repos</t>
         </is>
       </c>
-      <c r="AZ64" t="inlineStr">
+      <c r="BB64" t="inlineStr">
         <is>
           <t>MC error in the form of standard deviations, CIs are also mentioned. Should have maybe just computed Ses</t>
         </is>
       </c>
-      <c r="BA64" t="inlineStr">
+      <c r="BC64" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB64" s="2">
+      <c r="BD64" s="2">
         <v>45095</v>
       </c>
     </row>
@@ -13492,27 +14908,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr">
         <is>
           <t>"The Stan code of the proposed model is available from the Open Science Framework website (https://osf.io/zvxd2/)."</t>
         </is>
       </c>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY65" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ65" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="BA65" t="inlineStr">
+        <is>
           <t>link to R and Stan code, but not for simulation</t>
         </is>
       </c>
-      <c r="BA65" t="inlineStr">
+      <c r="BC65" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB65" s="2">
+      <c r="BD65" s="2">
         <v>45095</v>
       </c>
     </row>
@@ -13700,27 +15136,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>not found</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA66" t="inlineStr">
+        <is>
           <t>they provide CPU and RAM information, but not OS</t>
         </is>
       </c>
-      <c r="AZ66" t="inlineStr">
+      <c r="BB66" t="inlineStr">
         <is>
           <t>uncertainty with boxplots and ANOVA thinking. Relatively good</t>
         </is>
       </c>
-      <c r="BA66" t="inlineStr">
+      <c r="BC66" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB66" s="2">
+      <c r="BD66" s="2">
         <v>45095</v>
       </c>
     </row>
@@ -13913,30 +15369,55 @@
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>R, MATLAB</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS67" t="inlineStr">
+          <t>MATLAB</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU67" t="inlineStr">
         <is>
           <t>"wrote a MATLAB code for the other approaches."</t>
         </is>
       </c>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY67" t="inlineStr">
         <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA67" t="inlineStr">
+        <is>
           <t>"The MATLAB code is available from the first author upon request."</t>
         </is>
       </c>
-      <c r="BA67" t="inlineStr">
+      <c r="BC67" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB67" s="2">
+      <c r="BD67" s="2">
         <v>45145</v>
       </c>
     </row>
@@ -14122,30 +15603,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU68" t="inlineStr">
         <is>
           <t>"we reproduced both the R psych and SPSS implementations in the EFAtools package in R "</t>
         </is>
       </c>
-      <c r="AU68">
-        <v>836</v>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>https://osf.io/a836q and https://github.com/mdsteiner/efacomp_OSF</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
       </c>
       <c r="AY68" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ68" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA68" t="inlineStr">
+        <is>
           <t>at first sight well organized code repository, however, I can't find information on OS + software versions. Surprisingly I can't find a set.seed command anywhere after looking through the files</t>
         </is>
       </c>
-      <c r="BA68" t="inlineStr">
+      <c r="BC68" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB68" s="2">
+      <c r="BD68" s="2">
         <v>45078</v>
       </c>
     </row>
@@ -14326,27 +15829,52 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU69" t="inlineStr">
         <is>
           <t>both the program code and the tutorial can be freely downloaded from https://github.com/MirkoZanon/GeNEsIS</t>
         </is>
       </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>https://github.com/MirkoZanon/GeNEsIS</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY69" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ69" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="BA69" t="inlineStr">
+        <is>
           <t>there is a folder "Comparison simulations with other softwares" but there is no code to reproduce the simulations, only data files. Versions for running the program are reported, but not for the simulation study.</t>
         </is>
       </c>
-      <c r="BA69" t="inlineStr">
+      <c r="BC69" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB69" s="2">
+      <c r="BD69" s="2">
         <v>45078</v>
       </c>
     </row>
@@ -14532,27 +16060,52 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU70" t="inlineStr">
         <is>
           <t>Several of the algorithms are already implemented in the Python package Eyekit (https://jwcarr. github.io/eyekit/) and the R package popEye (https://github. com/sascha2schroeder/popEye),</t>
         </is>
       </c>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>https://github.com/jwcarr/drift</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AY70" t="inlineStr">
         <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ70" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA70" t="inlineStr">
+        <is>
           <t>There is a requirements.txt with all necessary software versions that can be used with python virtual environments</t>
         </is>
       </c>
-      <c r="BA70" t="inlineStr">
+      <c r="BC70" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB70" s="2">
+      <c r="BD70" s="2">
         <v>45078</v>
       </c>
     </row>
@@ -14740,23 +16293,50 @@
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR71" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU71">
-        <v>98</v>
-      </c>
-      <c r="BA71" t="inlineStr">
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>https://osf.io/y98sj/</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC71" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB71" s="2">
+      <c r="BD71" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -14937,17 +16517,42 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="BA72" t="inlineStr">
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>https://osf.io/zxmpf/</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ72" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC72" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB72" s="2">
+      <c r="BD72" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -15133,17 +16738,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>https://github.com/jmbh/NetworkGroupDifferences</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="AZ73" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="BC73" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB73" s="2">
+      <c r="BD73" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -15316,20 +16946,50 @@
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>R, Stan</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR74" t="inlineStr">
         <is>
+          <t>Stan</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="BA74" t="inlineStr">
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>https://osf.io/hvkfn/</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ74" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="BC74" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB74" s="2">
+      <c r="BD74" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -15507,20 +17167,45 @@
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
-          <t>R, flexMIRT</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR75" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA75" t="inlineStr">
+          <t>flexMIRT</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ75" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC75" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB75" s="2">
+      <c r="BD75" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -15698,28 +17383,55 @@
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>R, SAS</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS76" t="inlineStr">
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr">
         <is>
           <t>R code for the transformation and the significance tests under this condition are provided below</t>
         </is>
       </c>
-      <c r="AU76">
-        <v>7</v>
-      </c>
-      <c r="BA76" t="inlineStr">
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>https://osf.io/rtyg7/</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ76" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC76" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB76" s="2">
+      <c r="BD76" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -15900,20 +17612,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU77">
-        <v>5</v>
-      </c>
-      <c r="BA77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV77" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>https://osf.io/p5v6y/?view_only=fcdffbd2335b419487b452907ce2c3d0</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC77" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB77" s="2">
+      <c r="BD77" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -16096,20 +17830,50 @@
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>R, Python</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR78" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA78" t="inlineStr">
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>https://osf.io/qfxpr/</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC78" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB78" s="2">
+      <c r="BD78" s="2">
         <v>45098</v>
       </c>
     </row>
@@ -16297,25 +18061,50 @@
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
-          <t>MATLAB, R</t>
+          <t>MATLAB</t>
         </is>
       </c>
       <c r="AR79" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS79" t="inlineStr">
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU79" t="inlineStr">
         <is>
           <t>"(The JAGS codes for HRM-SIC and HRM-LC are provided in Appendices 3 and 4 in the online supplement, respectively)"</t>
         </is>
       </c>
-      <c r="BA79" t="inlineStr">
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC79" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB79" s="2">
+      <c r="BD79" s="2">
         <v>45098</v>
       </c>
     </row>
@@ -16496,17 +18285,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC80" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB80" s="2">
+      <c r="BD80" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -16692,17 +18501,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>https://github.com/LTrichtinger/Bootstrap_Test</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ81" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC81" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB81" s="2">
+      <c r="BD81" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -16883,20 +18717,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU82">
-        <v>10</v>
-      </c>
-      <c r="BA82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV82" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17605/OSF.IO/3FERB</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC82" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB82" s="2">
+      <c r="BD82" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -17082,17 +18938,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC83" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB83" s="2">
+      <c r="BD83" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -17278,27 +19154,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU84" t="inlineStr">
         <is>
           <t>"A self-generated Bayesian sampler in R (R core Team, 2018) was used for par- ameter estimation  The R codefor the Bayesian sampler is included in the supple-mentary material https://doi.org/10.1080/00273171.2021.1932403"</t>
         </is>
       </c>
+      <c r="AV84" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="AZ84" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB84" t="inlineStr">
+        <is>
           <t>supplementary material not findable, similar to other MBRM articles</t>
         </is>
       </c>
-      <c r="BA84" t="inlineStr">
+      <c r="BC84" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB84" s="2">
+      <c r="BD84" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -17484,22 +19380,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU85" t="inlineStr">
         <is>
           <t>"we provide rstan code for implementing the proposed method" https://github.com/sgolchi/PowerPriorMediation</t>
         </is>
       </c>
-      <c r="BA85" t="inlineStr">
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ85" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC85" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB85" s="2">
+      <c r="BD85" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -17680,17 +19596,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC86" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB86" s="2">
+      <c r="BD86" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -17871,17 +19807,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC87" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB87" s="2">
+      <c r="BD87" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -18067,22 +20023,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU88" t="inlineStr">
         <is>
           <t>"e provide OpenMx code and Mplus 8 syntax in the first author website (https://github.com/ Veronica0206/Extension_projects) to demonstrate how to trans- form the estimated mean vector and variance-covariance structure of reparameterized growth factors to those in the original setting"</t>
         </is>
       </c>
-      <c r="BA88" t="inlineStr">
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ88" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC88" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB88" s="2">
+      <c r="BD88" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -18258,17 +20234,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>https://github.com/wwloh/social-influence-interference</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC89" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB89" s="2">
+      <c r="BD89" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -18446,20 +20447,42 @@
           <t>Mplus</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU90">
-        <v>295</v>
-      </c>
-      <c r="BA90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV90" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000295/met0000295_supp.html</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ90" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC90" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB90" s="2">
+      <c r="BD90" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -18640,22 +20663,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
         <is>
           <t>"With this article come R functions that can be used to apply the approach prosed in combination with the R package bain (https://informative-hypotheses.sites.uu.nl/software/bain/)"</t>
         </is>
       </c>
-      <c r="BA91" t="inlineStr">
+      <c r="AV91" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ91" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC91" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB91" s="2">
+      <c r="BD91" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -18833,22 +20876,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr">
         <is>
           <t>"See Appendix E in the online supplementary materials for a synthetic data set for use in trying out R code for the WCLS estimator."</t>
         </is>
       </c>
-      <c r="BA92" t="inlineStr">
+      <c r="AV92" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC92" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB92" s="2">
+      <c r="BD92" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -19034,25 +21097,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
         <is>
           <t>"To facilitate this shift, we have implemented the nonregularized approach for predictability in R package GGMnonreg"</t>
         </is>
       </c>
-      <c r="AU93">
-        <v>92</v>
-      </c>
-      <c r="BA93" t="inlineStr">
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>https://osf.io/fm92b/</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ93" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC93" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB93" s="2">
+      <c r="BD93" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -19233,20 +21318,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AU94">
-        <v>37</v>
-      </c>
-      <c r="BA94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV94" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>https://osf.io/ghw37/</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC94" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB94" s="2">
+      <c r="BD94" s="2">
         <v>45104</v>
       </c>
     </row>
@@ -19427,17 +21534,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV95" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC95" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB95" s="2">
+      <c r="BD95" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -19618,17 +21745,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV96" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC96" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB96" s="2">
+      <c r="BD96" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -19804,22 +21951,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU97" t="inlineStr">
         <is>
           <t>"To help researchers more easily use the proposed approach, we developed an R Shiny application, which can be accessed at https://qmliu.shinyapps.io/DACFE/. Our proposed method is implemented in our R package `DACF`."</t>
         </is>
       </c>
-      <c r="BA97" t="inlineStr">
+      <c r="AV97" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC97" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB97" s="2">
+      <c r="BD97" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -19997,17 +22164,42 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV98" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC98" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB98" s="2">
+      <c r="BD98" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -20193,17 +22385,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV99" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>https://osf.io/wpcqx/</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC99" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB99" s="2">
+      <c r="BD99" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -20389,17 +22606,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV100" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC100" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB100" s="2">
+      <c r="BD100" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -20590,17 +22827,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV101" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="AZ101" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC101" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB101" s="2">
+      <c r="BD101" s="2">
         <v>45106</v>
       </c>
     </row>

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -11695,6 +11695,9 @@
           <t>medium</t>
         </is>
       </c>
+      <c r="BD51" s="2">
+        <v>45099</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11928,6 +11931,9 @@
           <t>great</t>
         </is>
       </c>
+      <c r="BD52" s="2">
+        <v>45099</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12256,6 +12262,9 @@
           <t>known</t>
         </is>
       </c>
+      <c r="Y54">
+        <v>2</v>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
           <t>estimation</t>
@@ -12494,6 +12503,9 @@
           <t>known</t>
         </is>
       </c>
+      <c r="Y55">
+        <v>3</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
           <t>testing</t>
@@ -12710,18 +12722,21 @@
         </is>
       </c>
       <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="Y56">
         <v>6</v>
       </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>known</t>
-        </is>
-      </c>
       <c r="Z56" t="inlineStr">
         <is>
           <t>testing</t>
@@ -12820,6 +12835,11 @@
       <c r="AY56" t="inlineStr">
         <is>
           <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ56" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
       <c r="BA56" t="inlineStr">
@@ -15424,7 +15444,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B68">
@@ -15655,7 +15675,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B69">
@@ -15881,7 +15901,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B70">
@@ -16112,7 +16132,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B71">
@@ -16343,7 +16363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B72">
@@ -16559,7 +16579,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B73">
@@ -16780,7 +16800,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B74">
@@ -16910,6 +16930,11 @@
         </is>
       </c>
       <c r="AG74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -16996,7 +17021,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B75">
@@ -17212,7 +17237,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B76">
@@ -17438,7 +17463,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B77">
@@ -17654,7 +17679,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B78">
@@ -17880,7 +17905,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B79">
@@ -18111,7 +18136,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B80">
@@ -18322,7 +18347,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B81">
@@ -18543,7 +18568,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B82">
@@ -18759,7 +18784,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B83">
@@ -18975,7 +19000,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B84">
@@ -19201,7 +19226,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B85">
@@ -19422,7 +19447,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B86">
@@ -19633,7 +19658,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B87">
@@ -19844,7 +19869,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B88">
@@ -20065,7 +20090,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B89">
@@ -20276,7 +20301,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B90">
@@ -20366,6 +20391,9 @@
         <is>
           <t>known</t>
         </is>
+      </c>
+      <c r="Y90">
+        <v>1</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
@@ -20489,7 +20517,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B91">
@@ -20705,7 +20733,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B92">
@@ -20918,7 +20946,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B93">
@@ -21144,7 +21172,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B94">
@@ -21360,7 +21388,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B95">
@@ -21571,7 +21599,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B96">
@@ -21782,7 +21810,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B97">
@@ -21819,6 +21847,11 @@
       <c r="I97" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -21993,7 +22026,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B98">
@@ -22206,7 +22239,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B99">
@@ -22427,7 +22460,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B100">
@@ -22643,7 +22676,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B101">

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -948,8 +948,18 @@
           <t>no</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="V3">
         <v>23</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1099,7 +1109,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000386_x000D_</t>
+          <t xml:space="preserve">https://doi.org/10.1037/met0000386_x000D_
+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1166,6 +1177,11 @@
       </c>
       <c r="V4">
         <v>1</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1302,7 +1318,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5">
@@ -1518,7 +1534,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B6">
@@ -1724,7 +1740,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B7">
@@ -1940,7 +1956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B8">
@@ -2145,7 +2161,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9">
@@ -2353,7 +2369,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10">
@@ -2564,7 +2580,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B11">
@@ -2780,7 +2796,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B12">
@@ -2998,7 +3014,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13">
@@ -3214,7 +3230,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B14">
@@ -3427,7 +3443,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B15">
@@ -3643,7 +3659,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16">
@@ -3849,7 +3865,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17">
@@ -4070,7 +4086,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B18">
@@ -4291,7 +4307,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19">
@@ -4502,7 +4518,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B20">
@@ -4718,7 +4734,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B21">
@@ -4939,7 +4955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B22">
@@ -5160,7 +5176,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B23">
@@ -5376,7 +5392,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B24">
@@ -5597,7 +5613,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B25">
@@ -5823,7 +5839,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B26">
@@ -6039,7 +6055,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B27">
@@ -6257,7 +6273,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B28">
@@ -6483,7 +6499,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B29">
@@ -6699,7 +6715,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B30">
@@ -6905,7 +6921,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B31">
@@ -7118,7 +7134,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B32">
@@ -7334,7 +7350,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B33">
@@ -7552,7 +7568,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B34">
@@ -7763,7 +7779,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B35">

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4978,6 +4978,11 @@
           <t>"We used 800 replications in each condition to balance accuracy and computational time."</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="V27">
         <v>6</v>
       </c>
@@ -7555,6 +7560,9 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="V59">
+        <v>190</v>
+      </c>
       <c r="W59" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10267,6 +10275,16 @@
       <c r="H83">
         <v>1</v>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>"The goal of the simulation was to create different arrays for three numerosities (5, 10, 20 elements), keeping constant the convex hull (controlled at 150000 pixels) and the total area (controlled at 20000 pixels) across quantities" (p. 153)</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>parametric thin-air</t>
@@ -10743,9 +10761,17 @@
           <t>no</t>
         </is>
       </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>unclear</t>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>known</t>
         </is>
       </c>
       <c r="Y85">
@@ -10922,6 +10948,11 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>"it specifically focused on how the identification constraint influences the information criteria" (p. 797)</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>parametric based on actual data</t>
@@ -11162,7 +11193,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -11202,7 +11233,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -11247,7 +11278,7 @@
         </is>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -11422,7 +11453,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -11462,7 +11493,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -11542,7 +11573,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, model selection</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11705,7 +11736,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -11745,7 +11776,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -11828,7 +11859,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>design, estimation</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11981,7 +12012,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -12212,7 +12243,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -12503,7 +12534,7 @@
         </is>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>200</v>
@@ -12729,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97">
         <v>1000</v>
@@ -13208,7 +13239,7 @@
         </is>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -14686,6 +14717,11 @@
           <t>parametric thin-air</t>
         </is>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="N111">
         <v>1296</v>
       </c>
@@ -15099,7 +15135,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
@@ -16351,7 +16387,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
@@ -18872,6 +18908,16 @@
           <t>"we describe the simulation study that was conducted to evaluate the performance of the original SPRT and the newly proposed SPRT in terms of the percentage of correct classifications and average test lengths in grid MCCTs."</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>parametric thin-air</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="N170">
         <v>33</v>
       </c>
@@ -19139,7 +19185,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -19179,7 +19225,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -19415,7 +19461,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -19671,7 +19717,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -19754,7 +19800,7 @@
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
@@ -19912,7 +19958,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -19995,7 +20041,7 @@
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, model selection</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
@@ -20153,7 +20199,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -20292,6 +20338,11 @@
       <c r="AK178" t="inlineStr">
         <is>
           <t>bias and CI width not defined as PM, but then interpreted from a figure</t>
+        </is>
+      </c>
+      <c r="AL178" t="inlineStr">
+        <is>
+          <t>nowhere</t>
         </is>
       </c>
       <c r="AM178" t="inlineStr">
@@ -20389,7 +20440,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -20635,7 +20686,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -20866,7 +20917,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -21596,7 +21647,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -21679,7 +21730,7 @@
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, classification</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
@@ -22319,7 +22370,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -22402,7 +22453,7 @@
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>model selection</t>
+          <t>model selection, testing</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
@@ -22586,6 +22637,11 @@
           <t>"In Study 1, we examine the performance of 2S-PA as compared with full SEM and alternative measurement error adjustment methods when there is measurement error on the predictor."</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>parametric thin-air</t>
+        </is>
+      </c>
       <c r="M188" t="inlineStr">
         <is>
           <t>yes</t>
@@ -22633,7 +22689,7 @@
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
@@ -28042,7 +28098,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -28258,7 +28314,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -28484,7 +28540,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -28705,7 +28761,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -28926,7 +28982,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -29157,7 +29213,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -29383,7 +29439,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -29426,7 +29482,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -29642,7 +29698,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -35192,7 +35248,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -35415,7 +35471,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -35686,7 +35742,7 @@
         <v>1</v>
       </c>
       <c r="P336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R336">
         <v>1</v>
@@ -36088,7 +36144,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -36314,7 +36370,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -12474,7 +12474,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -13592,7 +13592,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -14350,7 +14350,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -14626,7 +14626,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -14962,7 +14962,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -15408,7 +15408,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -15528,7 +15528,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -15568,7 +15568,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -16094,7 +16094,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -16134,7 +16134,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -16174,7 +16174,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -16214,7 +16214,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -16535,7 +16535,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -16575,7 +16575,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -16695,7 +16695,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -16971,7 +16971,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -17214,7 +17214,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -17660,7 +17660,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -17820,7 +17820,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -17900,7 +17900,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -18256,7 +18256,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -18336,7 +18336,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -18616,7 +18616,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -18867,7 +18867,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -19135,7 +19135,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -19175,7 +19175,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -19451,7 +19451,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -19707,7 +19707,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -21140,7 +21140,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -21637,7 +21637,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -22124,7 +22124,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -25389,7 +25389,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -25615,7 +25615,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -25836,7 +25836,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -25922,7 +25922,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -25965,7 +25965,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -26051,7 +26051,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -26094,7 +26094,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -26325,7 +26325,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -26454,7 +26454,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -26718,7 +26718,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -26761,7 +26761,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -26804,7 +26804,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -26890,7 +26890,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -26933,7 +26933,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -26976,7 +26976,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -27019,7 +27019,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -27336,7 +27336,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -27379,7 +27379,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -27615,7 +27615,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -27658,7 +27658,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -27701,7 +27701,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -27787,7 +27787,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -27830,7 +27830,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -27916,7 +27916,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -27959,7 +27959,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -28002,7 +28002,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -28045,7 +28045,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -28304,7 +28304,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -28530,7 +28530,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -28751,7 +28751,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -29203,7 +29203,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -29429,7 +29429,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -29472,7 +29472,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -29688,7 +29688,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -29731,7 +29731,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -29990,7 +29990,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -30033,7 +30033,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -30475,7 +30475,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -30696,7 +30696,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -30739,7 +30739,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -30960,7 +30960,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -31178,7 +31178,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -33315,7 +33315,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -33358,7 +33358,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -33401,7 +33401,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -33444,7 +33444,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -33487,7 +33487,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -33748,7 +33748,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -33834,7 +33834,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -33877,7 +33877,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -33920,7 +33920,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -33963,7 +33963,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -34006,7 +34006,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -34049,7 +34049,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -34275,7 +34275,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -34318,7 +34318,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -34361,7 +34361,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -34404,7 +34404,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -34625,7 +34625,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -34668,7 +34668,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -34711,7 +34711,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -34754,7 +34754,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -34797,7 +34797,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -34840,7 +34840,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -34883,7 +34883,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -34926,7 +34926,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -34969,7 +34969,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -35461,7 +35461,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -35687,7 +35687,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -12615,6 +12615,11 @@
           <t>standard deviations</t>
         </is>
       </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="AL96" t="inlineStr">
         <is>
           <t>nowhere</t>
@@ -30303,6 +30308,11 @@
       <c r="L272" t="inlineStr">
         <is>
           <t>parametric thin-air</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="N272">

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -1210,8 +1210,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://doi.org/10.1037/met0000386_x000D_
-</t>
+          <t>https://doi.org/10.1037/met0000386</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1342,9 +1341,14 @@
           <t>means and standard deviations of the estimates</t>
         </is>
       </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>no clue</t>
+          <t>very complex</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -8201,6 +8205,11 @@
       <c r="AI64" t="inlineStr">
         <is>
           <t>relative bias, relative efficiency</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="AL64" t="inlineStr">

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,14 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE339"/>
+  <dimension ref="A1:BA339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="56" max="56" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -597,55 +590,35 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>userwrittenquote_q19</t>
+          <t>codeprovided_q20</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>codeprovided_q20</t>
+          <t>codelink_q20</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>codelink_q20</t>
+          <t>seedprovided_q21</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>seedprovided_q21</t>
+          <t>compenvironment_q22</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>compenvironment_q22</t>
+          <t>compos_q23</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>compos_q23</t>
+          <t>coding_confidence</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>reproducibilitynote</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>coding_confidence</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>dateofreview</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>coding_type</t>
         </is>
@@ -685,13 +658,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD2" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="3">
@@ -886,45 +856,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/secastroal/LST_Analyses</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>https://github.com/secastroal/LST_Analyses</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
-        <is>
-          <t>package and R/MPLus version, but not OS</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD3" s="2">
-        <v>45082</v>
-      </c>
-      <c r="BE3" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1112,40 +1074,32 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
-        <is>
-          <t>only package name</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD4" s="2">
-        <v>45082</v>
-      </c>
-      <c r="BE4" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1185,13 +1139,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD5" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="6">
@@ -1386,14 +1337,19 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
@@ -1403,23 +1359,10 @@
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>extremely badly described and quite complicated paper -- I'm very unsure about the coding (the simulation starts at p. 89?)</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD6" s="2">
-        <v>45082</v>
-      </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1459,13 +1402,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD7" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="8">
@@ -1502,13 +1442,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD8" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="9">
@@ -1688,45 +1625,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
-        <is>
-          <t>code only for example, not the sim study</t>
-        </is>
-      </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>The sim study compares different fix indecies (based on a single ML model). So, although they are usually thought of as estimands, they serve as methods in this settings.</t>
-        </is>
-      </c>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD9" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE9" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1909,35 +1833,32 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD10" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1977,7 +1898,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -2165,19 +2086,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/connorjmccabe/modglm/blob/master/mscode/imp2_simulation_logit_FINAL_github.R</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>https://github.com/connorjmccabe/modglm/blob/master/mscode/imp2_simulation_logit_FINAL_github.R</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -2187,18 +2113,10 @@
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD12" s="2">
-        <v>45105</v>
-      </c>
-      <c r="BE12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -2380,14 +2298,19 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2397,18 +2320,10 @@
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD13" s="2">
-        <v>45105</v>
-      </c>
-      <c r="BE13" t="inlineStr">
+      <c r="BA13" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -2593,35 +2508,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD14" s="2">
-        <v>45105</v>
-      </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -2804,40 +2716,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"The simulation codecan be requested from the last author of this paper."</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>"The simulation codecan be requested from the last author of this paper."</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD15" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3025,40 +2934,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/xhfqw</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>https://osf.io/xhfqw</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD16" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE16" t="inlineStr">
+      <c r="BA16" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3243,45 +3149,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"is available upon request from the corresponding author"</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>"is available upon request from the corresponding author"</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
-        <is>
-          <t>including processor and RAM (because of the computational time comparison)</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD17" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE17" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3469,19 +3367,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>only data</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>only data</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -3491,18 +3394,10 @@
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD18" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE18" t="inlineStr">
+      <c r="BA18" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3692,35 +3587,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD19" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE19" t="inlineStr">
+      <c r="BA19" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3908,40 +3800,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"The code for data generation and calibration was written in R programming language (R Core Team, Citation2020) and can be requested from the author"</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>"The code for data generation and calibration was written in R programming language (R Core Team, Citation2020) and can be requested from the author"</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC20" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD20" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE20" t="inlineStr">
+      <c r="BA20" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4124,35 +4013,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD21" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE21" t="inlineStr">
+      <c r="BA21" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4345,19 +4231,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>http://www.sta.cuhk.edu.hk/xysong/JHMM/</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>http://www.sta.cuhk.edu.hk/xysong/JHMM/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -4367,18 +4258,10 @@
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD22" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE22" t="inlineStr">
+      <c r="BA22" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4418,7 +4301,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -4616,14 +4499,19 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -4633,18 +4521,10 @@
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD24" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE24" t="inlineStr">
+      <c r="BA24" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4827,40 +4707,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://figshare.com/articles/software/Multiple_imputation_in_data_that_grow_over_time/9902276</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>https://figshare.com/articles/software/Multiple_imputation_in_data_that_grow_over_time/9902276</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC25" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD25" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE25" t="inlineStr">
+      <c r="BA25" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4900,7 +4777,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX26" t="inlineStr">
+      <c r="AW26" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5093,40 +4970,37 @@
           <t>unclear</t>
         </is>
       </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/Aaron0696/FIML_MI_JOC_MISSINGDATA</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>https://github.com/Aaron0696/FIML_MI_JOC_MISSINGDATA</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD27" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE27" t="inlineStr">
+      <c r="BA27" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -5166,7 +5040,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX28" t="inlineStr">
+      <c r="AW28" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5206,7 +5080,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX29" t="inlineStr">
+      <c r="AW29" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5246,7 +5120,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX30" t="inlineStr">
+      <c r="AW30" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5439,40 +5313,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>references previous simulation</t>
         </is>
       </c>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>references previous simulation</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ31" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC31" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD31" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE31" t="inlineStr">
+      <c r="BA31" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -5512,7 +5383,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX32" t="inlineStr">
+      <c r="AW32" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5552,7 +5423,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX33" t="inlineStr">
+      <c r="AW33" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5740,45 +5611,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>http://faculty.missouri.edu/huangf/CR2/</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>http://faculty.missouri.edu/huangf/CR2/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ34" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB34" t="inlineStr">
-        <is>
-          <t>links to code on authors website but cannot be reached -- use open mantained repositories</t>
-        </is>
-      </c>
-      <c r="BC34" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD34" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE34" t="inlineStr">
+      <c r="BA34" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -5818,7 +5681,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX35" t="inlineStr">
+      <c r="AW35" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5858,7 +5721,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX36" t="inlineStr">
+      <c r="AW36" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5898,7 +5761,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX37" t="inlineStr">
+      <c r="AW37" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5938,7 +5801,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX38" t="inlineStr">
+      <c r="AW38" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5978,7 +5841,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX39" t="inlineStr">
+      <c r="AW39" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6166,40 +6029,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>(https://github.com/CynthiaXinTong/MedianGMM) only example, not full simulation script</t>
         </is>
       </c>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>(https://github.com/CynthiaXinTong/MedianGMM) only example, not full simulation script</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC40" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD40" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE40" t="inlineStr">
+      <c r="BA40" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -6239,7 +6099,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX41" t="inlineStr">
+      <c r="AW41" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6279,7 +6139,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX42" t="inlineStr">
+      <c r="AW42" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6319,7 +6179,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX43" t="inlineStr">
+      <c r="AW43" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6359,7 +6219,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX44" t="inlineStr">
+      <c r="AW44" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6399,7 +6259,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX45" t="inlineStr">
+      <c r="AW45" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6439,7 +6299,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX46" t="inlineStr">
+      <c r="AW46" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6479,7 +6339,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX47" t="inlineStr">
+      <c r="AW47" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6519,7 +6379,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX48" t="inlineStr">
+      <c r="AW48" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6559,7 +6419,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX49" t="inlineStr">
+      <c r="AW49" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6599,7 +6459,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX50" t="inlineStr">
+      <c r="AW50" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6639,7 +6499,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX51" t="inlineStr">
+      <c r="AW51" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6827,45 +6687,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"R codes can be made available upon request to the corresponding author"</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>"R codes can be made available upon request to the corresponding author"</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="BA52" t="inlineStr">
-        <is>
-          <t>A simulation study was conducted to evaluate the performance of the proposed GA for forced-choice item pairing.</t>
-        </is>
-      </c>
-      <c r="BC52" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="BD52" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE52" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -6905,7 +6757,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX53" t="inlineStr">
+      <c r="AW53" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6945,7 +6797,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX54" t="inlineStr">
+      <c r="AW54" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6985,7 +6837,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX55" t="inlineStr">
+      <c r="AW55" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7025,7 +6877,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX56" t="inlineStr">
+      <c r="AW56" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7220,43 +7072,35 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>they develop the package used for the methods</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/xdg3p/</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>https://osf.io/xdg3p/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ57" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC57" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD57" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE57" t="inlineStr">
+      <c r="BA57" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -7449,35 +7293,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ58" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC58" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD58" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE58" t="inlineStr">
+      <c r="BA58" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -7670,40 +7511,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000385/met0000385Rcode_submission.R</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>https://supp.apa.org/psycarticles/supplemental/met0000385/met0000385Rcode_submission.R</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ59" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC59" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD59" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE59" t="inlineStr">
+      <c r="BA59" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -7901,40 +7739,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/h95vx/</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>https://osf.io/h95vx/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ60" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC60" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD60" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE60" t="inlineStr">
+      <c r="BA60" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -7974,7 +7809,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX61" t="inlineStr">
+      <c r="AW61" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8014,7 +7849,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX62" t="inlineStr">
+      <c r="AW62" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8054,7 +7889,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX63" t="inlineStr">
+      <c r="AW63" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8247,40 +8082,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV64" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/bwk5t/</t>
         </is>
       </c>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>https://osf.io/bwk5t/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ64" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC64" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD64" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE64" t="inlineStr">
+      <c r="BA64" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -8320,7 +8152,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX65" t="inlineStr">
+      <c r="AW65" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8503,35 +8335,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ66" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC66" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD66" s="2">
-        <v>45107</v>
-      </c>
-      <c r="BE66" t="inlineStr">
+      <c r="BA66" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -8721,35 +8550,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC67" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD67" s="2">
-        <v>45107</v>
-      </c>
-      <c r="BE67" t="inlineStr">
+      <c r="BA67" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -8789,7 +8615,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX68" t="inlineStr">
+      <c r="AW68" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8829,7 +8655,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX69" t="inlineStr">
+      <c r="AW69" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8869,7 +8695,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX70" t="inlineStr">
+      <c r="AW70" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8909,7 +8735,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX71" t="inlineStr">
+      <c r="AW71" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8949,7 +8775,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX72" t="inlineStr">
+      <c r="AW72" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8989,7 +8815,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX73" t="inlineStr">
+      <c r="AW73" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9029,7 +8855,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX74" t="inlineStr">
+      <c r="AW74" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9217,40 +9043,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU75" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/5f732/?view_only=</t>
         </is>
       </c>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>https://osf.io/5f732/?view_only=</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ75" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC75" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD75" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE75" t="inlineStr">
+      <c r="BA75" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -9435,19 +9258,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV76" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/cd5sr/</t>
         </is>
       </c>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>https://osf.io/cd5sr/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr">
@@ -9457,23 +9285,10 @@
       </c>
       <c r="AZ76" t="inlineStr">
         <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="BB76" t="inlineStr">
-        <is>
-          <t>great example of citing packages with version numbers directly in text</t>
-        </is>
-      </c>
-      <c r="BC76" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD76" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE76" t="inlineStr">
+      <c r="BA76" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -9514,7 +9329,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX77" t="inlineStr">
+      <c r="AW77" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9554,7 +9369,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX78" t="inlineStr">
+      <c r="AW78" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9742,14 +9557,19 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr">
@@ -9759,18 +9579,10 @@
       </c>
       <c r="AZ79" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC79" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD79" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE79" t="inlineStr">
+      <c r="BA79" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -9955,35 +9767,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ80" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC80" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD80" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE80" t="inlineStr">
+      <c r="BA80" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -10023,7 +9832,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX81" t="inlineStr">
+      <c r="AW81" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -10208,19 +10017,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
@@ -10230,18 +10044,10 @@
       </c>
       <c r="AZ82" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC82" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD82" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE82" t="inlineStr">
+      <c r="BA82" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -10429,40 +10235,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU83" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>there is a link to the program, but there is no simulation study</t>
         </is>
       </c>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>there is a link to the program, but there is no simulation study</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ83" t="inlineStr">
         <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="BC83" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD83" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE83" t="inlineStr">
+      <c r="BA83" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -10655,40 +10458,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU84" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV84" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/wpcqx/</t>
         </is>
       </c>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>https://osf.io/wpcqx/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ84" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC84" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD84" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE84" t="inlineStr">
+      <c r="BA84" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -10876,14 +10676,19 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV85" t="inlineStr">
+      <c r="AU85" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
@@ -10893,23 +10698,10 @@
       </c>
       <c r="AZ85" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB85" t="inlineStr">
-        <is>
-          <t>no idea what the sim was actually about</t>
-        </is>
-      </c>
-      <c r="BC85" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD85" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE85" t="inlineStr">
+      <c r="BA85" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -11102,40 +10894,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU86" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/qvryj/?view_only=</t>
         </is>
       </c>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>https://osf.io/qvryj/?view_only=</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ86" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC86" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD86" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE86" t="inlineStr">
+      <c r="BA86" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -11175,7 +10964,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX87" t="inlineStr">
+      <c r="AW87" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -11215,7 +11004,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX88" t="inlineStr">
+      <c r="AW88" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -11399,43 +11188,30 @@
       </c>
       <c r="AU89" t="inlineStr">
         <is>
-          <t>"the modified parallel analysis and factor score reliabilities were calculated using author-written functions in R. Code for these functions is available upon request."</t>
-        </is>
-      </c>
-      <c r="AV89" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ89" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB89" t="inlineStr">
-        <is>
-          <t>super weird, one paragraph of the whole paper contains information about the simulation, suppplemental material does not exist. unsure about my rating. User-written software is mentioned, unclear if used in the simulation</t>
-        </is>
-      </c>
-      <c r="BC89" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD89" s="2">
-        <v>45083</v>
-      </c>
-      <c r="BE89" t="inlineStr">
+      <c r="BA89" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -11475,7 +11251,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX90" t="inlineStr">
+      <c r="AW90" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -11680,45 +11456,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV91" t="inlineStr">
+      <c r="AU91" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ91" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA91" t="inlineStr">
-        <is>
-          <t>only software name, no version</t>
-        </is>
-      </c>
-      <c r="BB91" t="inlineStr">
-        <is>
-          <t>uncertainty only provided for one of the many measures. Unsure if the estimand here are the individual parts of the factor model or the respective fit indices</t>
-        </is>
-      </c>
-      <c r="BC91" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD91" s="2">
-        <v>45083</v>
-      </c>
-      <c r="BE91" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -11758,7 +11521,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX92" t="inlineStr">
+      <c r="AW92" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -11961,40 +11724,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV93" t="inlineStr">
+      <c r="AU93" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ93" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB93" t="inlineStr">
-        <is>
-          <t>unclear to me if the first simulation study of the paper is supposed to be a simulation study or just an example of simulation-based power analysis; kept very brief</t>
-        </is>
-      </c>
-      <c r="BC93" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD93" s="2">
-        <v>45083</v>
-      </c>
-      <c r="BE93" t="inlineStr">
+      <c r="BA93" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -12192,14 +11947,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV94" t="inlineStr">
+      <c r="AU94" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr">
@@ -12209,23 +11969,10 @@
       </c>
       <c r="AZ94" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB94" t="inlineStr">
-        <is>
-          <t>figures look like screenshots from an excel spreadsheet</t>
-        </is>
-      </c>
-      <c r="BC94" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD94" s="2">
-        <v>45084</v>
-      </c>
-      <c r="BE94" t="inlineStr">
+      <c r="BA94" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -12430,17 +12177,17 @@
       </c>
       <c r="AU95" t="inlineStr">
         <is>
-          <t>"All the estimation routines described in this paper and employed for the simulations and empirical example were coded in R by the first author."</t>
-        </is>
-      </c>
-      <c r="AV95" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr">
@@ -12450,23 +12197,10 @@
       </c>
       <c r="AZ95" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB95" t="inlineStr">
-        <is>
-          <t>they call it two simulations, but later state that these are the two "main simulation conditions". I've coded it as one sim.</t>
-        </is>
-      </c>
-      <c r="BC95" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD95" s="2">
-        <v>45084</v>
-      </c>
-      <c r="BE95" t="inlineStr">
+      <c r="BA95" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -12666,43 +12400,30 @@
       </c>
       <c r="AU96" t="inlineStr">
         <is>
-          <t>they merely implemented it in mgcv</t>
-        </is>
-      </c>
-      <c r="AV96" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ96" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA96" t="inlineStr">
-        <is>
-          <t>they provide extensive code for model fitting, which also includes a seed somewhere. But they do not provide the code for their simulation</t>
-        </is>
-      </c>
-      <c r="BC96" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD96" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE96" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -12902,48 +12623,35 @@
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>"The R code and data used in this paper are available in GitHub at https:// github.com/jtm508/bayestraj. Vignettes are also provided to help users adapt the code to applications of their own interest."</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/jtm508/bayestraj</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>https://github.com/jtm508/bayestraj</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB97" t="inlineStr">
-        <is>
-          <t>not sure if this should be included. More of a demonstration than a full simulation</t>
-        </is>
-      </c>
-      <c r="BC97" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD97" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE97" t="inlineStr">
+      <c r="BA97" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13145,38 +12853,30 @@
       </c>
       <c r="AU98" t="inlineStr">
         <is>
-          <t>"The download link and a brief description of an R package for our latent mixture-based method is available in the online supplemental materials."</t>
-        </is>
-      </c>
-      <c r="AV98" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ98" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC98" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD98" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE98" t="inlineStr">
+      <c r="BA98" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13383,53 +13083,35 @@
       </c>
       <c r="AU99" t="inlineStr">
         <is>
-          <t>wrote their own MCMC sampler</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/MbCN-lab/LassoFANDDM</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>https://github.com/MbCN-lab/LassoFANDDM</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ99" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA99" t="inlineStr">
-        <is>
-          <t>seed is not in the simulation script, but in the "main" script. Still counted it as yes</t>
-        </is>
-      </c>
-      <c r="BB99" t="inlineStr">
-        <is>
-          <t>not sure if this should be included. More of a demonstration than a full simulation</t>
-        </is>
-      </c>
-      <c r="BC99" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD99" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE99" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13469,7 +13151,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX100" t="inlineStr">
+      <c r="AW100" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -13509,7 +13191,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX101" t="inlineStr">
+      <c r="AW101" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -13549,7 +13231,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX102" t="inlineStr">
+      <c r="AW102" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -13589,7 +13271,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX103" t="inlineStr">
+      <c r="AW103" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -13794,48 +13476,35 @@
       </c>
       <c r="AU104" t="inlineStr">
         <is>
-          <t>JAGS model</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/5vnxc/</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>https://osf.io/5vnxc/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ104" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA104" t="inlineStr">
-        <is>
-          <t>seed provided in a different part of the scripts, but still coded as "yes"</t>
-        </is>
-      </c>
-      <c r="BC104" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD104" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE104" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13875,7 +13544,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX105" t="inlineStr">
+      <c r="AW105" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -14073,45 +13742,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU106" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
         </is>
       </c>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ106" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB106" t="inlineStr">
-        <is>
-          <t>the simulation coded here merely dealt as illustration that a certain model specification can recover unbiased estimates on average</t>
-        </is>
-      </c>
-      <c r="BC106" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD106" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE106" t="inlineStr">
+      <c r="BA106" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -14311,17 +13972,17 @@
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>We have also developed an R package that implements the proposed method (https://cran.r-project.org/web/packages/mediationsens/index.html).</t>
-        </is>
-      </c>
-      <c r="AV107" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
@@ -14331,23 +13992,10 @@
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB107" t="inlineStr">
-        <is>
-          <t>this was the most unneccessarily complex description of a simulation study so far. Different subscenarios within different scenarios</t>
-        </is>
-      </c>
-      <c r="BC107" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD107" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE107" t="inlineStr">
+      <c r="BA107" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -14547,43 +14195,30 @@
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>development of a web app which makes it easier for applied researchers to implement the proposed summary-statistics-based power analysis (https://koumurayama.shinyapps.io/summary_statistics _based_power/)</t>
-        </is>
-      </c>
-      <c r="AV108" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ108" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA108" t="inlineStr">
-        <is>
-          <t>computational environment not really specified, but could use their shiny app to reproduce the results</t>
-        </is>
-      </c>
-      <c r="BC108" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD108" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE108" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -14623,7 +14258,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX109" t="inlineStr">
+      <c r="AW109" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -14663,14 +14298,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX110" t="inlineStr">
+      <c r="AW110" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB110" t="inlineStr">
-        <is>
-          <t>they use simulation, but for illustration</t>
         </is>
       </c>
     </row>
@@ -14873,48 +14503,35 @@
       </c>
       <c r="AU111" t="inlineStr">
         <is>
-          <t>Ox Code</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV111" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000412/met0000412_simulation_general_coefficient_for_revision_1.ox</t>
         </is>
       </c>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>https://supp.apa.org/psycarticles/supplemental/met0000412/met0000412_simulation_general_coefficient_for_revision_1.ox</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ111" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA111" t="inlineStr">
-        <is>
-          <t>hard to read the Ox code, but I see no seed there. Not sure if "minimal" is correct for this</t>
-        </is>
-      </c>
-      <c r="BC111" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD111" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE111" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -14954,14 +14571,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX112" t="inlineStr">
+      <c r="AW112" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB112" t="inlineStr">
-        <is>
-          <t>they use simulation, but for illustration</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14611,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX113" t="inlineStr">
+      <c r="AW113" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15039,14 +14651,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX114" t="inlineStr">
+      <c r="AW114" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB114" t="inlineStr">
-        <is>
-          <t>very unsure if this really is a "sim" study, as it tests a software in different browsers on simulated response times</t>
         </is>
       </c>
     </row>
@@ -15244,48 +14851,30 @@
       </c>
       <c r="AU115" t="inlineStr">
         <is>
-          <t>In order to estimate the 2moME model with single-level data, we “trick” the software by including a cluster variable that has only one individual in each cluster.</t>
-        </is>
-      </c>
-      <c r="AV115" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ115" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA115" t="inlineStr">
-        <is>
-          <t>contains Mplus version, but not R version</t>
-        </is>
-      </c>
-      <c r="BB115" t="inlineStr">
-        <is>
-          <t>rather clear in stating goals &amp; performance measures of sim study. Not sure if this small Mplus trick is enough to count as "userwritten"</t>
-        </is>
-      </c>
-      <c r="BC115" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD115" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE115" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -15325,7 +14914,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX116" t="inlineStr">
+      <c r="AW116" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15365,7 +14954,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX117" t="inlineStr">
+      <c r="AW117" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15405,7 +14994,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX118" t="inlineStr">
+      <c r="AW118" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15445,7 +15034,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX119" t="inlineStr">
+      <c r="AW119" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15485,7 +15074,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX120" t="inlineStr">
+      <c r="AW120" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15525,7 +15114,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX121" t="inlineStr">
+      <c r="AW121" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15565,7 +15154,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX122" t="inlineStr">
+      <c r="AW122" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15605,7 +15194,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX123" t="inlineStr">
+      <c r="AW123" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15645,7 +15234,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX124" t="inlineStr">
+      <c r="AW124" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15685,7 +15274,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX125" t="inlineStr">
+      <c r="AW125" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15725,7 +15314,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX126" t="inlineStr">
+      <c r="AW126" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15765,7 +15354,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX127" t="inlineStr">
+      <c r="AW127" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15968,50 +15557,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU128" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV128" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/qvryj/</t>
         </is>
       </c>
       <c r="AW128" t="inlineStr">
         <is>
-          <t>https://osf.io/qvryj/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ128" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA128" t="inlineStr">
-        <is>
-          <t>not sure if seed found in the code was also used for the simulation, but the same seed was used multiple times, so that's probably used. R version given, other package versions not given</t>
-        </is>
-      </c>
-      <c r="BB128" t="inlineStr">
-        <is>
-          <t>not sure if this should count as simulation study for our purposes. They demonstrate an issue rather than investigate performance</t>
-        </is>
-      </c>
-      <c r="BC128" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD128" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE128" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -16051,7 +15627,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX129" t="inlineStr">
+      <c r="AW129" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16091,7 +15667,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX130" t="inlineStr">
+      <c r="AW130" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16131,7 +15707,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX131" t="inlineStr">
+      <c r="AW131" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16171,7 +15747,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX132" t="inlineStr">
+      <c r="AW132" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16211,7 +15787,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX133" t="inlineStr">
+      <c r="AW133" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16251,7 +15827,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX134" t="inlineStr">
+      <c r="AW134" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16291,7 +15867,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX135" t="inlineStr">
+      <c r="AW135" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16491,48 +16067,35 @@
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>used standard SAS module</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://scholarworks.iupui.edu/handle/1805/24059</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>https://scholarworks.iupui.edu/handle/1805/24059</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX136" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY136" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ136" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA136" t="inlineStr">
-        <is>
-          <t>code is on university homepage, not sure how long this will be accessible</t>
-        </is>
-      </c>
-      <c r="BC136" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD136" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE136" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -16572,7 +16135,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX137" t="inlineStr">
+      <c r="AW137" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16612,7 +16175,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX138" t="inlineStr">
+      <c r="AW138" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16652,7 +16215,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX139" t="inlineStr">
+      <c r="AW139" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16692,7 +16255,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX140" t="inlineStr">
+      <c r="AW140" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16887,48 +16450,35 @@
       </c>
       <c r="AU141" t="inlineStr">
         <is>
-          <t>they use their own JAGS code - is this user written?</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV141" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>printed in the paper</t>
         </is>
       </c>
       <c r="AW141" t="inlineStr">
         <is>
-          <t>printed in the paper</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX141" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY141" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ141" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB141" t="inlineStr">
-        <is>
-          <t>unsure if this should be called a simulation study, they call it "parameter recovery study"</t>
-        </is>
-      </c>
-      <c r="BC141" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD141" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE141" t="inlineStr">
+      <c r="BA141" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -16968,7 +16518,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX142" t="inlineStr">
+      <c r="AW142" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17165,53 +16715,35 @@
       </c>
       <c r="AU143" t="inlineStr">
         <is>
-          <t>In this section, we provide a comprehensive overview of how to use mixtur, providing code examples for each step. mixtur is written in R (Version 4.0.2, R Core Team, 2020)4, a free statistical programming language. To download R, visit https://www.r-project.org/.</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV143" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/je2y6</t>
         </is>
       </c>
       <c r="AW143" t="inlineStr">
         <is>
-          <t>https://osf.io/je2y6</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX143" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY143" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ143" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA143" t="inlineStr">
-        <is>
-          <t>packages with versions</t>
-        </is>
-      </c>
-      <c r="BB143" t="inlineStr">
-        <is>
-          <t>split into 5 brief simulations. This seems like a positive example for reproducibility</t>
-        </is>
-      </c>
-      <c r="BC143" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD143" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE143" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -17251,7 +16783,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX144" t="inlineStr">
+      <c r="AW144" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17444,50 +16976,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU145" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV145" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/3nj64</t>
         </is>
       </c>
       <c r="AW145" t="inlineStr">
         <is>
-          <t>https://osf.io/3nj64</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX145" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY145" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ145" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA145" t="inlineStr">
-        <is>
-          <t>seed is set to iteration in for loop</t>
-        </is>
-      </c>
-      <c r="BB145" t="inlineStr">
-        <is>
-          <t>simulation results on OSF, nice extensive supplement</t>
-        </is>
-      </c>
-      <c r="BC145" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD145" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE145" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -17527,7 +17046,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX146" t="inlineStr">
+      <c r="AW146" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17567,14 +17086,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX147" t="inlineStr">
+      <c r="AW147" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB147" t="inlineStr">
-        <is>
-          <t>simulated some data, but just for illustration purposes</t>
         </is>
       </c>
     </row>
@@ -17612,7 +17126,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX148" t="inlineStr">
+      <c r="AW148" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17652,14 +17166,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX149" t="inlineStr">
+      <c r="AW149" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB149" t="inlineStr">
-        <is>
-          <t>simulated some data, but just for illustration purposes</t>
         </is>
       </c>
     </row>
@@ -17697,7 +17206,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX150" t="inlineStr">
+      <c r="AW150" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17737,7 +17246,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX151" t="inlineStr">
+      <c r="AW151" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17777,7 +17286,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX152" t="inlineStr">
+      <c r="AW152" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17817,7 +17326,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX153" t="inlineStr">
+      <c r="AW153" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17857,7 +17366,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX154" t="inlineStr">
+      <c r="AW154" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17897,7 +17406,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX155" t="inlineStr">
+      <c r="AW155" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18090,45 +17599,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV156" t="inlineStr">
+      <c r="AU156" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW156" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX156" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY156" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ156" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA156" t="inlineStr">
-        <is>
-          <t>code for analyses available, but not for simulation</t>
-        </is>
-      </c>
-      <c r="BB156" t="inlineStr">
-        <is>
-          <t>extensive supplement</t>
-        </is>
-      </c>
-      <c r="BC156" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD156" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE156" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -18168,14 +17664,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX157" t="inlineStr">
+      <c r="AW157" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB157" t="inlineStr">
-        <is>
-          <t>they used monte carlo simulation to generate a null distribution, not to investigate a method</t>
         </is>
       </c>
     </row>
@@ -18213,7 +17704,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX158" t="inlineStr">
+      <c r="AW158" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18253,7 +17744,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX159" t="inlineStr">
+      <c r="AW159" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18293,7 +17784,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX160" t="inlineStr">
+      <c r="AW160" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18333,7 +17824,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX161" t="inlineStr">
+      <c r="AW161" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18373,7 +17864,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX162" t="inlineStr">
+      <c r="AW162" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18413,7 +17904,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX163" t="inlineStr">
+      <c r="AW163" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18453,7 +17944,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX164" t="inlineStr">
+      <c r="AW164" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18493,7 +17984,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX165" t="inlineStr">
+      <c r="AW165" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18533,7 +18024,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX166" t="inlineStr">
+      <c r="AW166" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18573,7 +18064,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX167" t="inlineStr">
+      <c r="AW167" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18613,7 +18104,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX168" t="inlineStr">
+      <c r="AW168" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18818,53 +18309,35 @@
       </c>
       <c r="AU169" t="inlineStr">
         <is>
-          <t>"our method, implemented in C++ as a DOS application"</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV169" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://zenodo.org/record/4897128</t>
         </is>
       </c>
       <c r="AW169" t="inlineStr">
         <is>
-          <t>https://zenodo.org/record/4897128</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX169" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY169" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ169" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="BA169" t="inlineStr">
-        <is>
-          <t>not sure how to check the code here, really large repo. May not contain the code for the simulations, not sure. They use their own software, which is why I put "partially"</t>
-        </is>
-      </c>
-      <c r="BB169" t="inlineStr">
-        <is>
-          <t>unsure if we should include this, they simulate data to show that their algorithm has good synchronization errors</t>
-        </is>
-      </c>
-      <c r="BC169" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="BD169" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE169" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -19064,14 +18537,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV170" t="inlineStr">
+      <c r="AU170" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW170" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX170" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY170" t="inlineStr">
@@ -19081,18 +18559,10 @@
       </c>
       <c r="AZ170" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC170" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD170" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE170" t="inlineStr">
+      <c r="BA170" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -19132,7 +18602,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX171" t="inlineStr">
+      <c r="AW171" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19172,7 +18642,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX172" t="inlineStr">
+      <c r="AW172" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19212,7 +18682,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX173" t="inlineStr">
+      <c r="AW173" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19412,17 +18882,17 @@
       </c>
       <c r="AU174" t="inlineStr">
         <is>
-          <t>"A code programmed in software R (R Core Team, 2019) can be available from the authors upon request."</t>
-        </is>
-      </c>
-      <c r="AV174" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW174" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX174" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY174" t="inlineStr">
@@ -19432,23 +18902,10 @@
       </c>
       <c r="AZ174" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB174" t="inlineStr">
-        <is>
-          <t>apparently, these are somehow two simulation studies, with the prior of the latter being based on the first one. Is not very clear to me, and reporting is a bit unstructured</t>
-        </is>
-      </c>
-      <c r="BC174" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD174" s="2">
-        <v>45091</v>
-      </c>
-      <c r="BE174" t="inlineStr">
+      <c r="BA174" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -19658,53 +19115,35 @@
       </c>
       <c r="AU175" t="inlineStr">
         <is>
-          <t>they use their own Mplus Syntax</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV175" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>printed in the paper</t>
         </is>
       </c>
       <c r="AW175" t="inlineStr">
         <is>
-          <t>printed in the paper</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX175" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY175" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ175" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA175" t="inlineStr">
-        <is>
-          <t>unsure how much would be needed to report for SAS, they provide SAS version - maybe this covers all relevant versions? Same for Mplus. They provide code for model fitting, but not for simulation, which is why I put "not accessible"</t>
-        </is>
-      </c>
-      <c r="BB175" t="inlineStr">
-        <is>
-          <t>nice ANOVA logic in the results</t>
-        </is>
-      </c>
-      <c r="BC175" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD175" s="2">
-        <v>45091</v>
-      </c>
-      <c r="BE175" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -19907,45 +19346,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV176" t="inlineStr">
+      <c r="AU176" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW176" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX176" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ176" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA176" t="inlineStr">
-        <is>
-          <t>code for examples provided, but not for simulation</t>
-        </is>
-      </c>
-      <c r="BB176" t="inlineStr">
-        <is>
-          <t>50 pages of figures/tables in the supplement</t>
-        </is>
-      </c>
-      <c r="BC176" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD176" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE176" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -20148,45 +19574,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV177" t="inlineStr">
+      <c r="AU177" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW177" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX177" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY177" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ177" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA177" t="inlineStr">
-        <is>
-          <t>not sure what to put for "MATLAB 2017b". I guess it's enough to reproduce everything?</t>
-        </is>
-      </c>
-      <c r="BB177" t="inlineStr">
-        <is>
-          <t>not sure where to count different chi square cutoffs, they don't count it as a condition. Includes ANOVA, so this kind of includes uncertainty (maybe)?. Includes SD of SE Bias, I interpret this as MC uncertainty measure in the same way as boxplots would be</t>
-        </is>
-      </c>
-      <c r="BC177" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD177" s="2">
-        <v>45092</v>
-      </c>
-      <c r="BE177" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -20391,43 +19804,30 @@
       </c>
       <c r="AU178" t="inlineStr">
         <is>
-          <t>"We attempt to bridge this gap for Bayesian reliability analysis by introducing an R-package that contains the proposed methodology."</t>
-        </is>
-      </c>
-      <c r="AV178" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW178" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX178" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY178" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ178" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA178" t="inlineStr">
-        <is>
-          <t>only code for empirical example with seed, no code for sim</t>
-        </is>
-      </c>
-      <c r="BC178" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD178" s="2">
-        <v>45092</v>
-      </c>
-      <c r="BE178" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -20635,45 +20035,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV179" t="inlineStr">
+      <c r="AU179" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW179" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX179" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY179" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ179" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA179" t="inlineStr">
-        <is>
-          <t>link to R code provided, but link is dead. The user has no public GitHub repos</t>
-        </is>
-      </c>
-      <c r="BB179" t="inlineStr">
-        <is>
-          <t>MC error in the form of standard deviations, CIs are also mentioned. Should have maybe just computed Ses</t>
-        </is>
-      </c>
-      <c r="BC179" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD179" s="2">
-        <v>45095</v>
-      </c>
-      <c r="BE179" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -20868,17 +20255,17 @@
       </c>
       <c r="AU180" t="inlineStr">
         <is>
-          <t>"The Stan code of the proposed model is available from the Open Science Framework website (https://osf.io/zvxd2/)."</t>
-        </is>
-      </c>
-      <c r="AV180" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW180" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX180" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY180" t="inlineStr">
@@ -20888,23 +20275,10 @@
       </c>
       <c r="AZ180" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA180" t="inlineStr">
-        <is>
-          <t>link to R and Stan code, but not for simulation</t>
-        </is>
-      </c>
-      <c r="BC180" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD180" s="2">
-        <v>45095</v>
-      </c>
-      <c r="BE180" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -21099,45 +20473,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV181" t="inlineStr">
+      <c r="AU181" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW181" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX181" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY181" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ181" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA181" t="inlineStr">
-        <is>
-          <t>they provide CPU and RAM information, but not OS</t>
-        </is>
-      </c>
-      <c r="BB181" t="inlineStr">
-        <is>
-          <t>uncertainty with boxplots and ANOVA thinking. Relatively good</t>
-        </is>
-      </c>
-      <c r="BC181" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD181" s="2">
-        <v>45095</v>
-      </c>
-      <c r="BE181" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -21347,43 +20708,30 @@
       </c>
       <c r="AU182" t="inlineStr">
         <is>
-          <t>"wrote a MATLAB code for the other approaches."</t>
-        </is>
-      </c>
-      <c r="AV182" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW182" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX182" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY182" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ182" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA182" t="inlineStr">
-        <is>
-          <t>"The MATLAB code is available from the first author upon request."</t>
-        </is>
-      </c>
-      <c r="BC182" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD182" s="2">
-        <v>45145</v>
-      </c>
-      <c r="BE182" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -21588,53 +20936,35 @@
       </c>
       <c r="AU183" t="inlineStr">
         <is>
-          <t>"we first ran analyses in the programs mentioned above and then reproduced results from both programs using our own functions included in a dedicated R package—EFAtools (Steiner &amp; Grieder, 2020). We then conducted all further analyses with our own functions that enable a flexible use of all combinations of settings needed for the simulation analyses and that are faster due to C++ implementations of the iterative procedures."</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV183" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/a836q/</t>
         </is>
       </c>
       <c r="AW183" t="inlineStr">
         <is>
-          <t>https://osf.io/a836q/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX183" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY183" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ183" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA183" t="inlineStr">
-        <is>
-          <t>state package, SPSS and R numbers. Rstanarm package version not stated, though</t>
-        </is>
-      </c>
-      <c r="BB183" t="inlineStr">
-        <is>
-          <t>coding documentation is nice. Interesting approach to detect differences between methods by using Bayesian Regression</t>
-        </is>
-      </c>
-      <c r="BC183" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD183" s="2">
-        <v>45109</v>
-      </c>
-      <c r="BE183" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -21839,53 +21169,35 @@
       </c>
       <c r="AU184" t="inlineStr">
         <is>
-          <t>"The detailed JAGS codes for the JVRTLCDM can be found in the supplementary material."</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV184" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>dead link</t>
         </is>
       </c>
       <c r="AW184" t="inlineStr">
         <is>
-          <t>dead link</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX184" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY184" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ184" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA184" t="inlineStr">
-        <is>
-          <t>some code is supposed to be in supplemental material, which cannot be found. state package and R and JAGS versions</t>
-        </is>
-      </c>
-      <c r="BB184" t="inlineStr">
-        <is>
-          <t>could use the standard deviations in the RMSE table to calculate an MCSE; will likely show that there is much noise and little clear differences between the two models</t>
-        </is>
-      </c>
-      <c r="BC184" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD184" s="2">
-        <v>45109</v>
-      </c>
-      <c r="BE184" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -22088,14 +21400,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV185" t="inlineStr">
+      <c r="AU185" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW185" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX185" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY185" t="inlineStr">
@@ -22105,23 +21422,10 @@
       </c>
       <c r="AZ185" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA185" t="inlineStr">
-        <is>
-          <t>code only for models, not for simulation</t>
-        </is>
-      </c>
-      <c r="BC185" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD185" s="2">
-        <v>45109</v>
-      </c>
-      <c r="BE185" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -22321,43 +21625,30 @@
       </c>
       <c r="AU186" t="inlineStr">
         <is>
-          <t>"aiming to promote best practices in the assembly of pairwise FCQs, a user-friendly implementation of the presented GA has been made available at https:// psychometricmodelling.shinyapps.io/FCoptimization/"</t>
-        </is>
-      </c>
-      <c r="AV186" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW186" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX186" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY186" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ186" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="BA186" t="inlineStr">
-        <is>
-          <t>"R codes can be made available upon request to the corresponding author." lovely</t>
-        </is>
-      </c>
-      <c r="BC186" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="BD186" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE186" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -22560,40 +21851,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV187" t="inlineStr">
+      <c r="AU187" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW187" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX187" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY187" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ187" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA187" t="inlineStr">
-        <is>
-          <t>code only provided for numerical example</t>
-        </is>
-      </c>
-      <c r="BC187" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD187" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE187" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -22798,48 +22081,35 @@
       </c>
       <c r="AU188" t="inlineStr">
         <is>
-          <t>Mplus and OpenMx model, but the latter not necessary for simulation</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV188" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/h95vx/</t>
         </is>
       </c>
       <c r="AW188" t="inlineStr">
         <is>
-          <t>https://osf.io/h95vx/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX188" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY188" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ188" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA188" t="inlineStr">
-        <is>
-          <t>code for simulations only needs R and Mplus</t>
-        </is>
-      </c>
-      <c r="BC188" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD188" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE188" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -22879,13 +22149,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX189" t="inlineStr">
+      <c r="AW189" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD189" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="190">
@@ -22922,13 +22189,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX190" t="inlineStr">
+      <c r="AW190" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD190" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="191">
@@ -22965,13 +22229,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX191" t="inlineStr">
+      <c r="AW191" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD191" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="192">
@@ -23008,13 +22269,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX192" t="inlineStr">
+      <c r="AW192" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD192" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="193">
@@ -23206,48 +22464,35 @@
       </c>
       <c r="AU193" t="inlineStr">
         <is>
-          <t>"we reproduced both the R psych and SPSS implementations in the EFAtools package in R "</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV193" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/a836q and https://github.com/mdsteiner/efacomp_OSF</t>
         </is>
       </c>
       <c r="AW193" t="inlineStr">
         <is>
-          <t>https://osf.io/a836q and https://github.com/mdsteiner/efacomp_OSF</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX193" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY193" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ193" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA193" t="inlineStr">
-        <is>
-          <t>at first sight well organized code repository, however, I can't find information on OS + software versions. Surprisingly I can't find a set.seed command anywhere after looking through the files</t>
-        </is>
-      </c>
-      <c r="BC193" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD193" s="2">
-        <v>45078</v>
-      </c>
-      <c r="BE193" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -23287,13 +22532,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX194" t="inlineStr">
+      <c r="AW194" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD194" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="195">
@@ -23330,13 +22572,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX195" t="inlineStr">
+      <c r="AW195" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD195" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="196">
@@ -23373,13 +22612,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX196" t="inlineStr">
+      <c r="AW196" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD196" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="197">
@@ -23416,13 +22652,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX197" t="inlineStr">
+      <c r="AW197" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD197" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="198">
@@ -23609,48 +22842,35 @@
       </c>
       <c r="AU198" t="inlineStr">
         <is>
-          <t>both the program code and the tutorial can be freely downloaded from https://github.com/MirkoZanon/GeNEsIS</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV198" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://github.com/MirkoZanon/GeNEsIS</t>
         </is>
       </c>
       <c r="AW198" t="inlineStr">
         <is>
-          <t>https://github.com/MirkoZanon/GeNEsIS</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX198" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY198" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AZ198" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA198" t="inlineStr">
-        <is>
-          <t>there is a folder "Comparison simulations with other softwares" but there is no code to reproduce the simulations, only data files. Versions for running the program are reported, but not for the simulation study.</t>
-        </is>
-      </c>
-      <c r="BC198" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD198" s="2">
-        <v>45078</v>
-      </c>
-      <c r="BE198" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -23690,13 +22910,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX199" t="inlineStr">
+      <c r="AW199" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD199" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="200">
@@ -23733,13 +22950,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX200" t="inlineStr">
+      <c r="AW200" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD200" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="201">
@@ -23776,13 +22990,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX201" t="inlineStr">
+      <c r="AW201" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD201" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="202">
@@ -23819,13 +23030,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX202" t="inlineStr">
+      <c r="AW202" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD202" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="203">
@@ -23862,13 +23070,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX203" t="inlineStr">
+      <c r="AW203" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD203" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="204">
@@ -23905,13 +23110,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX204" t="inlineStr">
+      <c r="AW204" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD204" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="205">
@@ -23948,13 +23150,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX205" t="inlineStr">
+      <c r="AW205" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD205" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="206">
@@ -24146,48 +23345,35 @@
       </c>
       <c r="AU206" t="inlineStr">
         <is>
-          <t>Several of the algorithms are already implemented in the Python package Eyekit (https://jwcarr. github.io/eyekit/) and the R package popEye (https://github. com/sascha2schroeder/popEye),</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV206" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/jwcarr/drift</t>
         </is>
       </c>
       <c r="AW206" t="inlineStr">
         <is>
-          <t>https://github.com/jwcarr/drift</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY206" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ206" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA206" t="inlineStr">
-        <is>
-          <t>There is a requirements.txt with all necessary software versions that can be used with python virtual environments</t>
-        </is>
-      </c>
-      <c r="BC206" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD206" s="2">
-        <v>45078</v>
-      </c>
-      <c r="BE206" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -24227,13 +23413,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX207" t="inlineStr">
+      <c r="AW207" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD207" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="208">
@@ -24270,13 +23453,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX208" t="inlineStr">
+      <c r="AW208" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD208" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="209">
@@ -24313,13 +23493,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX209" t="inlineStr">
+      <c r="AW209" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD209" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="210">
@@ -24356,13 +23533,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX210" t="inlineStr">
+      <c r="AW210" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD210" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="211">
@@ -24399,13 +23573,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX211" t="inlineStr">
+      <c r="AW211" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD211" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="212">
@@ -24442,13 +23613,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX212" t="inlineStr">
+      <c r="AW212" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD212" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="213">
@@ -24485,13 +23653,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX213" t="inlineStr">
+      <c r="AW213" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD213" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="214">
@@ -24691,40 +23856,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU214" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV214" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/y98sj/</t>
         </is>
       </c>
       <c r="AW214" t="inlineStr">
         <is>
-          <t>https://osf.io/y98sj/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX214" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY214" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ214" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC214" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD214" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE214" t="inlineStr">
+      <c r="BA214" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -24764,13 +23926,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX215" t="inlineStr">
+      <c r="AW215" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD215" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="216">
@@ -24807,13 +23966,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX216" t="inlineStr">
+      <c r="AW216" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD216" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="217">
@@ -24850,13 +24006,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX217" t="inlineStr">
+      <c r="AW217" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD217" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="218">
@@ -24893,13 +24046,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX218" t="inlineStr">
+      <c r="AW218" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD218" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="219">
@@ -24936,13 +24086,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX219" t="inlineStr">
+      <c r="AW219" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD219" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="220">
@@ -25127,19 +24274,24 @@
           <t>unclear</t>
         </is>
       </c>
+      <c r="AU220" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV220" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/zxmpf/</t>
         </is>
       </c>
       <c r="AW220" t="inlineStr">
         <is>
-          <t>https://osf.io/zxmpf/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX220" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY220" t="inlineStr">
@@ -25149,18 +24301,10 @@
       </c>
       <c r="AZ220" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC220" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD220" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE220" t="inlineStr">
+      <c r="BA220" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -25353,19 +24497,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU221" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV221" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/jmbh/NetworkGroupDifferences</t>
         </is>
       </c>
       <c r="AW221" t="inlineStr">
         <is>
-          <t>https://github.com/jmbh/NetworkGroupDifferences</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX221" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AY221" t="inlineStr">
@@ -25375,18 +24524,10 @@
       </c>
       <c r="AZ221" t="inlineStr">
         <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="BC221" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD221" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE221" t="inlineStr">
+      <c r="BA221" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -25579,40 +24720,37 @@
           <t>unclear</t>
         </is>
       </c>
+      <c r="AU222" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV222" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/hvkfn/</t>
         </is>
       </c>
       <c r="AW222" t="inlineStr">
         <is>
-          <t>https://osf.io/hvkfn/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX222" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY222" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AZ222" t="inlineStr">
         <is>
-          <t>partially</t>
-        </is>
-      </c>
-      <c r="BC222" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD222" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE222" t="inlineStr">
+      <c r="BA222" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -25805,14 +24943,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV223" t="inlineStr">
+      <c r="AU223" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW223" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX223" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY223" t="inlineStr">
@@ -25822,18 +24965,10 @@
       </c>
       <c r="AZ223" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC223" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD223" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE223" t="inlineStr">
+      <c r="BA223" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -25873,13 +25008,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX224" t="inlineStr">
+      <c r="AW224" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD224" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="225">
@@ -25916,13 +25048,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX225" t="inlineStr">
+      <c r="AW225" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD225" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="226">
@@ -25959,13 +25088,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX226" t="inlineStr">
+      <c r="AW226" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD226" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="227">
@@ -26002,13 +25128,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX227" t="inlineStr">
+      <c r="AW227" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD227" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="228">
@@ -26045,13 +25168,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX228" t="inlineStr">
+      <c r="AW228" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD228" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="229">
@@ -26088,13 +25208,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX229" t="inlineStr">
+      <c r="AW229" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD229" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="230">
@@ -26286,43 +25403,35 @@
       </c>
       <c r="AU230" t="inlineStr">
         <is>
-          <t>R code for the transformation and the significance tests under this condition are provided below</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV230" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/rtyg7/</t>
         </is>
       </c>
       <c r="AW230" t="inlineStr">
         <is>
-          <t>https://osf.io/rtyg7/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX230" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY230" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ230" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC230" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD230" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE230" t="inlineStr">
+      <c r="BA230" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -26362,13 +25471,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX231" t="inlineStr">
+      <c r="AW231" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD231" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="232">
@@ -26405,13 +25511,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX232" t="inlineStr">
+      <c r="AW232" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD232" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="233">
@@ -26448,13 +25551,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX233" t="inlineStr">
+      <c r="AW233" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD233" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="234">
@@ -26639,19 +25739,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU234" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV234" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/p5v6y/?view_only=fcdffbd2335b419487b452907ce2c3d0</t>
         </is>
       </c>
       <c r="AW234" t="inlineStr">
         <is>
-          <t>https://osf.io/p5v6y/?view_only=fcdffbd2335b419487b452907ce2c3d0</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX234" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY234" t="inlineStr">
@@ -26661,18 +25766,10 @@
       </c>
       <c r="AZ234" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC234" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD234" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE234" t="inlineStr">
+      <c r="BA234" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -26712,13 +25809,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX235" t="inlineStr">
+      <c r="AW235" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD235" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="236">
@@ -26755,13 +25849,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX236" t="inlineStr">
+      <c r="AW236" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD236" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="237">
@@ -26798,13 +25889,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX237" t="inlineStr">
+      <c r="AW237" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD237" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="238">
@@ -26841,13 +25929,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX238" t="inlineStr">
+      <c r="AW238" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD238" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="239">
@@ -26884,13 +25969,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX239" t="inlineStr">
+      <c r="AW239" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD239" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="240">
@@ -26927,13 +26009,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX240" t="inlineStr">
+      <c r="AW240" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD240" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="241">
@@ -26970,13 +26049,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX241" t="inlineStr">
+      <c r="AW241" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD241" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="242">
@@ -27013,13 +26089,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX242" t="inlineStr">
+      <c r="AW242" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD242" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="243">
@@ -27056,13 +26129,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX243" t="inlineStr">
+      <c r="AW243" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD243" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="244">
@@ -27099,13 +26169,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX244" t="inlineStr">
+      <c r="AW244" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD244" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="245">
@@ -27300,19 +26367,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU245" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV245" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/qfxpr/</t>
         </is>
       </c>
       <c r="AW245" t="inlineStr">
         <is>
-          <t>https://osf.io/qfxpr/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX245" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY245" t="inlineStr">
@@ -27322,18 +26394,10 @@
       </c>
       <c r="AZ245" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC245" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD245" s="2">
-        <v>45098</v>
-      </c>
-      <c r="BE245" t="inlineStr">
+      <c r="BA245" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -27373,13 +26437,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX246" t="inlineStr">
+      <c r="AW246" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD246" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="247">
@@ -27581,17 +26642,17 @@
       </c>
       <c r="AU247" t="inlineStr">
         <is>
-          <t>"(The JAGS codes for HRM-SIC and HRM-LC are provided in Appendices 3 and 4 in the online supplement, respectively)"</t>
-        </is>
-      </c>
-      <c r="AV247" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW247" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX247" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY247" t="inlineStr">
@@ -27601,18 +26662,10 @@
       </c>
       <c r="AZ247" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC247" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD247" s="2">
-        <v>45098</v>
-      </c>
-      <c r="BE247" t="inlineStr">
+      <c r="BA247" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -27652,13 +26705,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX248" t="inlineStr">
+      <c r="AW248" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD248" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="249">
@@ -27695,13 +26745,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX249" t="inlineStr">
+      <c r="AW249" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD249" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="250">
@@ -27738,13 +26785,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX250" t="inlineStr">
+      <c r="AW250" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD250" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="251">
@@ -27781,13 +26825,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX251" t="inlineStr">
+      <c r="AW251" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD251" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="252">
@@ -27824,13 +26865,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX252" t="inlineStr">
+      <c r="AW252" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD252" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="253">
@@ -27867,13 +26905,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX253" t="inlineStr">
+      <c r="AW253" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD253" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="254">
@@ -27910,13 +26945,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX254" t="inlineStr">
+      <c r="AW254" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD254" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="255">
@@ -27953,13 +26985,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX255" t="inlineStr">
+      <c r="AW255" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD255" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="256">
@@ -27996,13 +27025,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX256" t="inlineStr">
+      <c r="AW256" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD256" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="257">
@@ -28039,13 +27065,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX257" t="inlineStr">
+      <c r="AW257" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD257" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="258">
@@ -28082,13 +27105,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX258" t="inlineStr">
+      <c r="AW258" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD258" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="259">
@@ -28273,35 +27293,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV259" t="inlineStr">
+      <c r="AU259" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW259" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX259" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY259" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ259" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC259" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD259" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE259" t="inlineStr">
+      <c r="BA259" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -28494,40 +27511,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU260" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV260" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/LTrichtinger/Bootstrap_Test</t>
         </is>
       </c>
       <c r="AW260" t="inlineStr">
         <is>
-          <t>https://github.com/LTrichtinger/Bootstrap_Test</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX260" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY260" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ260" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC260" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD260" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE260" t="inlineStr">
+      <c r="BA260" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -28715,40 +27729,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU261" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV261" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://doi.org/10.17605/OSF.IO/3FERB</t>
         </is>
       </c>
       <c r="AW261" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17605/OSF.IO/3FERB</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX261" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY261" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ261" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC261" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD261" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE261" t="inlineStr">
+      <c r="BA261" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -28941,35 +27952,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV262" t="inlineStr">
+      <c r="AU262" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW262" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX262" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY262" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ262" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC262" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD262" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE262" t="inlineStr">
+      <c r="BA262" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -29164,43 +28172,30 @@
       </c>
       <c r="AU263" t="inlineStr">
         <is>
-          <t>"A self-generated Bayesian sampler in R (R core Team, 2018) was used for par- ameter estimation  The R codefor the Bayesian sampler is included in the supple-mentary material https://doi.org/10.1080/00273171.2021.1932403"</t>
-        </is>
-      </c>
-      <c r="AV263" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW263" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX263" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY263" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ263" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB263" t="inlineStr">
-        <is>
-          <t>supplementary material not findable, similar to other MBRM articles</t>
-        </is>
-      </c>
-      <c r="BC263" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD263" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE263" t="inlineStr">
+      <c r="BA263" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -29395,38 +28390,30 @@
       </c>
       <c r="AU264" t="inlineStr">
         <is>
-          <t>"we provide rstan code for implementing the proposed method" https://github.com/sgolchi/PowerPriorMediation</t>
-        </is>
-      </c>
-      <c r="AV264" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW264" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX264" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY264" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ264" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC264" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD264" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE264" t="inlineStr">
+      <c r="BA264" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -29466,13 +28453,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX265" t="inlineStr">
+      <c r="AW265" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD265" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="266">
@@ -29657,14 +28641,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV266" t="inlineStr">
+      <c r="AU266" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW266" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX266" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY266" t="inlineStr">
@@ -29674,18 +28663,10 @@
       </c>
       <c r="AZ266" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC266" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD266" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE266" t="inlineStr">
+      <c r="BA266" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -29725,13 +28706,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX267" t="inlineStr">
+      <c r="AW267" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD267" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="268">
@@ -29916,14 +28894,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV268" t="inlineStr">
+      <c r="AU268" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX268" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY268" t="inlineStr">
@@ -29933,18 +28916,10 @@
       </c>
       <c r="AZ268" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC268" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD268" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE268" t="inlineStr">
+      <c r="BA268" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -29984,13 +28959,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX269" t="inlineStr">
+      <c r="AW269" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD269" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="270">
@@ -30027,13 +28999,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX270" t="inlineStr">
+      <c r="AW270" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD270" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="271">
@@ -30225,38 +29194,30 @@
       </c>
       <c r="AU271" t="inlineStr">
         <is>
-          <t>"e provide OpenMx code and Mplus 8 syntax in the first author website (https://github.com/ Veronica0206/Extension_projects) to demonstrate how to trans- form the estimated mean vector and variance-covariance structure of reparameterized growth factors to those in the original setting"</t>
-        </is>
-      </c>
-      <c r="AV271" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW271" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX271" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY271" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ271" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC271" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD271" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE271" t="inlineStr">
+      <c r="BA271" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -30444,40 +29405,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU272" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV272" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/wwloh/social-influence-interference</t>
         </is>
       </c>
       <c r="AW272" t="inlineStr">
         <is>
-          <t>https://github.com/wwloh/social-influence-interference</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX272" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY272" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ272" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC272" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD272" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE272" t="inlineStr">
+      <c r="BA272" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -30665,40 +29623,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU273" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV273" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000295/met0000295_supp.html</t>
         </is>
       </c>
       <c r="AW273" t="inlineStr">
         <is>
-          <t>https://supp.apa.org/psycarticles/supplemental/met0000295/met0000295_supp.html</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX273" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY273" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ273" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC273" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD273" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE273" t="inlineStr">
+      <c r="BA273" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -30738,13 +29693,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX274" t="inlineStr">
+      <c r="AW274" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD274" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="275">
@@ -30931,38 +29883,30 @@
       </c>
       <c r="AU275" t="inlineStr">
         <is>
-          <t>"With this article come R functions that can be used to apply the approach prosed in combination with the R package bain (https://informative-hypotheses.sites.uu.nl/software/bain/)"</t>
-        </is>
-      </c>
-      <c r="AV275" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW275" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX275" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY275" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ275" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC275" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD275" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE275" t="inlineStr">
+      <c r="BA275" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31149,17 +30093,17 @@
       </c>
       <c r="AU276" t="inlineStr">
         <is>
-          <t>"See Appendix E in the online supplementary materials for a synthetic data set for use in trying out R code for the WCLS estimator."</t>
-        </is>
-      </c>
-      <c r="AV276" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW276" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX276" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY276" t="inlineStr">
@@ -31169,18 +30113,10 @@
       </c>
       <c r="AZ276" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC276" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD276" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE276" t="inlineStr">
+      <c r="BA276" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31375,43 +30311,35 @@
       </c>
       <c r="AU277" t="inlineStr">
         <is>
-          <t>"To facilitate this shift, we have implemented the nonregularized approach for predictability in R package GGMnonreg"</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV277" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/fm92b/</t>
         </is>
       </c>
       <c r="AW277" t="inlineStr">
         <is>
-          <t>https://osf.io/fm92b/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX277" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY277" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ277" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC277" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD277" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE277" t="inlineStr">
+      <c r="BA277" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31451,13 +30379,10 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AX278" t="inlineStr">
+      <c r="AW278" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD278" s="2">
-        <v>45104</v>
       </c>
     </row>
     <row r="279">
@@ -31494,13 +30419,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX279" t="inlineStr">
+      <c r="AW279" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD279" s="2">
-        <v>45104</v>
       </c>
     </row>
     <row r="280">
@@ -31537,13 +30459,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX280" t="inlineStr">
+      <c r="AW280" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD280" s="2">
-        <v>45104</v>
       </c>
     </row>
     <row r="281">
@@ -31728,40 +30647,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU281" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV281" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/ghw37/</t>
         </is>
       </c>
       <c r="AW281" t="inlineStr">
         <is>
-          <t>https://osf.io/ghw37/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX281" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY281" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ281" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC281" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD281" s="2">
-        <v>45104</v>
-      </c>
-      <c r="BE281" t="inlineStr">
+      <c r="BA281" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31801,13 +30717,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX282" t="inlineStr">
+      <c r="AW282" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD282" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="283">
@@ -31992,14 +30905,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV283" t="inlineStr">
+      <c r="AU283" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW283" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX283" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY283" t="inlineStr">
@@ -32009,18 +30927,10 @@
       </c>
       <c r="AZ283" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC283" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD283" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE283" t="inlineStr">
+      <c r="BA283" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -32060,13 +30970,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX284" t="inlineStr">
+      <c r="AW284" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD284" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="285">
@@ -32103,13 +31010,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX285" t="inlineStr">
+      <c r="AW285" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD285" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="286">
@@ -32146,13 +31050,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX286" t="inlineStr">
+      <c r="AW286" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD286" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="287">
@@ -32189,13 +31090,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX287" t="inlineStr">
+      <c r="AW287" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD287" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="288">
@@ -32232,13 +31130,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX288" t="inlineStr">
+      <c r="AW288" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD288" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="289">
@@ -32275,13 +31170,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX289" t="inlineStr">
+      <c r="AW289" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD289" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="290">
@@ -32466,35 +31358,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV290" t="inlineStr">
+      <c r="AU290" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW290" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX290" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY290" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ290" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC290" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD290" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE290" t="inlineStr">
+      <c r="BA290" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -32534,13 +31423,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX291" t="inlineStr">
+      <c r="AW291" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD291" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="292">
@@ -32577,13 +31463,10 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AX292" t="inlineStr">
+      <c r="AW292" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD292" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="293">
@@ -32770,38 +31653,30 @@
       </c>
       <c r="AU293" t="inlineStr">
         <is>
-          <t>"To help researchers more easily use the proposed approach, we developed an R Shiny application, which can be accessed at https://qmliu.shinyapps.io/DACFE/. Our proposed method is implemented in our R package `DACF`."</t>
-        </is>
-      </c>
-      <c r="AV293" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW293" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX293" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY293" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ293" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC293" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD293" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE293" t="inlineStr">
+      <c r="BA293" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -32841,13 +31716,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX294" t="inlineStr">
+      <c r="AW294" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD294" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="295">
@@ -32884,13 +31756,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX295" t="inlineStr">
+      <c r="AW295" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD295" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="296">
@@ -32927,13 +31796,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX296" t="inlineStr">
+      <c r="AW296" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD296" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="297">
@@ -32970,13 +31836,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX297" t="inlineStr">
+      <c r="AW297" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD297" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="298">
@@ -33013,13 +31876,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX298" t="inlineStr">
+      <c r="AW298" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD298" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="299">
@@ -33056,13 +31916,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX299" t="inlineStr">
+      <c r="AW299" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD299" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="300">
@@ -33099,13 +31956,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX300" t="inlineStr">
+      <c r="AW300" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD300" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="301">
@@ -33142,13 +31996,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX301" t="inlineStr">
+      <c r="AW301" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD301" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="302">
@@ -33185,13 +32036,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX302" t="inlineStr">
+      <c r="AW302" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD302" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="303">
@@ -33228,13 +32076,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX303" t="inlineStr">
+      <c r="AW303" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD303" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="304">
@@ -33271,13 +32116,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX304" t="inlineStr">
+      <c r="AW304" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD304" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="305">
@@ -33314,13 +32156,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX305" t="inlineStr">
+      <c r="AW305" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD305" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="306">
@@ -33357,13 +32196,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX306" t="inlineStr">
+      <c r="AW306" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD306" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="307">
@@ -33400,13 +32236,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX307" t="inlineStr">
+      <c r="AW307" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD307" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="308">
@@ -33443,13 +32276,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX308" t="inlineStr">
+      <c r="AW308" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD308" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="309">
@@ -33486,13 +32316,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX309" t="inlineStr">
+      <c r="AW309" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD309" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="310">
@@ -33674,19 +32501,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU310" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV310" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
         </is>
       </c>
       <c r="AW310" t="inlineStr">
         <is>
-          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX310" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY310" t="inlineStr">
@@ -33696,18 +32528,10 @@
       </c>
       <c r="AZ310" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC310" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD310" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE310" t="inlineStr">
+      <c r="BA310" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -33747,13 +32571,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX311" t="inlineStr">
+      <c r="AW311" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD311" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="312">
@@ -33790,13 +32611,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX312" t="inlineStr">
+      <c r="AW312" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD312" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="313">
@@ -33833,13 +32651,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX313" t="inlineStr">
+      <c r="AW313" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD313" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="314">
@@ -33876,13 +32691,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX314" t="inlineStr">
+      <c r="AW314" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD314" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="315">
@@ -33919,13 +32731,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX315" t="inlineStr">
+      <c r="AW315" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD315" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="316">
@@ -33962,13 +32771,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX316" t="inlineStr">
+      <c r="AW316" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD316" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="317">
@@ -34005,13 +32811,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX317" t="inlineStr">
+      <c r="AW317" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD317" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="318">
@@ -34048,13 +32851,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX318" t="inlineStr">
+      <c r="AW318" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD318" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="319">
@@ -34244,40 +33044,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU319" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV319" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/wpcqx/</t>
         </is>
       </c>
       <c r="AW319" t="inlineStr">
         <is>
-          <t>https://osf.io/wpcqx/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX319" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY319" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ319" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC319" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD319" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE319" t="inlineStr">
+      <c r="BA319" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -34317,13 +33114,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX320" t="inlineStr">
+      <c r="AW320" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD320" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="321">
@@ -34360,13 +33154,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX321" t="inlineStr">
+      <c r="AW321" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD321" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="322">
@@ -34403,13 +33194,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX322" t="inlineStr">
+      <c r="AW322" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD322" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="323">
@@ -34599,14 +33387,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV323" t="inlineStr">
+      <c r="AU323" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW323" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX323" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY323" t="inlineStr">
@@ -34616,18 +33409,10 @@
       </c>
       <c r="AZ323" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC323" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD323" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE323" t="inlineStr">
+      <c r="BA323" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -34667,13 +33452,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX324" t="inlineStr">
+      <c r="AW324" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD324" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="325">
@@ -34710,13 +33492,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX325" t="inlineStr">
+      <c r="AW325" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD325" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="326">
@@ -34753,13 +33532,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX326" t="inlineStr">
+      <c r="AW326" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD326" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="327">
@@ -34796,13 +33572,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX327" t="inlineStr">
+      <c r="AW327" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD327" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="328">
@@ -34839,13 +33612,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX328" t="inlineStr">
+      <c r="AW328" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD328" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="329">
@@ -34882,13 +33652,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX329" t="inlineStr">
+      <c r="AW329" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD329" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="330">
@@ -34925,13 +33692,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX330" t="inlineStr">
+      <c r="AW330" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD330" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="331">
@@ -34968,13 +33732,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX331" t="inlineStr">
+      <c r="AW331" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD331" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="332">
@@ -35169,35 +33930,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV332" t="inlineStr">
+      <c r="AU332" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW332" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX332" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY332" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ332" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC332" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD332" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE332" t="inlineStr">
+      <c r="BA332" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -35237,13 +33995,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX333" t="inlineStr">
+      <c r="AW333" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD333" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="334">
@@ -35427,43 +34182,30 @@
       </c>
       <c r="AU334" t="inlineStr">
         <is>
-          <t>"inally, the modified parallel analysis and factor score reliabilities were cal- culated using author-written functions in R. Code for these functions is available upon request."</t>
-        </is>
-      </c>
-      <c r="AV334" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW334" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX334" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY334" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ334" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB334" t="inlineStr">
-        <is>
-          <t>supplementary material not findable, similar to other MBRM articles</t>
-        </is>
-      </c>
-      <c r="BC334" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD334" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE334" t="inlineStr">
+      <c r="BA334" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -35658,17 +34400,17 @@
       </c>
       <c r="AU335" t="inlineStr">
         <is>
-          <t>"A code programmed in software R (R Core Team, 2019) can be available from the authors upon request"</t>
-        </is>
-      </c>
-      <c r="AV335" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW335" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX335" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY335" t="inlineStr">
@@ -35678,18 +34420,10 @@
       </c>
       <c r="AZ335" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC335" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD335" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE335" t="inlineStr">
+      <c r="BA335" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -35882,14 +34616,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV336" t="inlineStr">
+      <c r="AU336" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW336" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX336" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY336" t="inlineStr">
@@ -35899,18 +34638,10 @@
       </c>
       <c r="AZ336" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC336" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD336" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE336" t="inlineStr">
+      <c r="BA336" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -36103,19 +34834,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU337" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV337" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/53b2g/</t>
         </is>
       </c>
       <c r="AW337" t="inlineStr">
         <is>
-          <t>https://osf.io/53b2g/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX337" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY337" t="inlineStr">
@@ -36125,18 +34861,10 @@
       </c>
       <c r="AZ337" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC337" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD337" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE337" t="inlineStr">
+      <c r="BA337" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -36331,17 +35059,17 @@
       </c>
       <c r="AU338" t="inlineStr">
         <is>
-          <t>"code for data generation and calibration was written in R programming language (R Core Team, 2020) and can be requested from the author."</t>
-        </is>
-      </c>
-      <c r="AV338" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW338" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX338" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY338" t="inlineStr">
@@ -36351,18 +35079,10 @@
       </c>
       <c r="AZ338" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC338" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD338" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE338" t="inlineStr">
+      <c r="BA338" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -36552,40 +35272,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV339" t="inlineStr">
+      <c r="AU339" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW339" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX339" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY339" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ339" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB339" t="inlineStr">
-        <is>
-          <t>supplementary material not findable, similar to other MBRM articles</t>
-        </is>
-      </c>
-      <c r="BC339" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD339" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE339" t="inlineStr">
+      <c r="BA339" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>

--- a/data/sim_res_num.xlsx
+++ b/data/sim_res_num.xlsx
@@ -23360,7 +23360,7 @@
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY206" t="inlineStr">
@@ -32518,7 +32518,7 @@
       </c>
       <c r="AX310" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY310" t="inlineStr">
